--- a/shrtdata_future.xlsx
+++ b/shrtdata_future.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I754"/>
+  <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23822,6 +23822,7787 @@
         </is>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>111193</v>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="C755" t="n">
+        <v>399.9266662597656</v>
+      </c>
+      <c r="D755" t="n">
+        <v>399.9266662597656</v>
+      </c>
+      <c r="E755" t="n">
+        <v>400.3566589355469</v>
+      </c>
+      <c r="F755" t="n">
+        <v>378.6799926757812</v>
+      </c>
+      <c r="G755" t="n">
+        <v>382.5833435058594</v>
+      </c>
+      <c r="H755" t="n">
+        <v>103931400</v>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>111194</v>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="C756" t="n">
+        <v>383.1966552734375</v>
+      </c>
+      <c r="D756" t="n">
+        <v>383.1966552734375</v>
+      </c>
+      <c r="E756" t="n">
+        <v>402.6666564941406</v>
+      </c>
+      <c r="F756" t="n">
+        <v>374.3500061035156</v>
+      </c>
+      <c r="G756" t="n">
+        <v>396.5166625976562</v>
+      </c>
+      <c r="H756" t="n">
+        <v>100248300</v>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>111195</v>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="C757" t="n">
+        <v>362.7066650390625</v>
+      </c>
+      <c r="D757" t="n">
+        <v>362.7066650390625</v>
+      </c>
+      <c r="E757" t="n">
+        <v>390.1133422851562</v>
+      </c>
+      <c r="F757" t="n">
+        <v>360.336669921875</v>
+      </c>
+      <c r="G757" t="n">
+        <v>382.2166748046875</v>
+      </c>
+      <c r="H757" t="n">
+        <v>80119800</v>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>111196</v>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="C758" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="D758" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="E758" t="n">
+        <v>362.6666564941406</v>
+      </c>
+      <c r="F758" t="n">
+        <v>340.1666564941406</v>
+      </c>
+      <c r="G758" t="n">
+        <v>359</v>
+      </c>
+      <c r="H758" t="n">
+        <v>90336600</v>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>111197</v>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="C759" t="n">
+        <v>342.3200073242188</v>
+      </c>
+      <c r="D759" t="n">
+        <v>342.3200073242188</v>
+      </c>
+      <c r="E759" t="n">
+        <v>360.3099975585938</v>
+      </c>
+      <c r="F759" t="n">
+        <v>336.6666564941406</v>
+      </c>
+      <c r="G759" t="n">
+        <v>360.1233215332031</v>
+      </c>
+      <c r="H759" t="n">
+        <v>84164700</v>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>111198</v>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="C760" t="n">
+        <v>352.7066650390625</v>
+      </c>
+      <c r="D760" t="n">
+        <v>352.7066650390625</v>
+      </c>
+      <c r="E760" t="n">
+        <v>353.0333251953125</v>
+      </c>
+      <c r="F760" t="n">
+        <v>326.6666564941406</v>
+      </c>
+      <c r="G760" t="n">
+        <v>333.3333435058594</v>
+      </c>
+      <c r="H760" t="n">
+        <v>91815000</v>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>111199</v>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="C761" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D761" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="E761" t="n">
+        <v>358.6166687011719</v>
+      </c>
+      <c r="F761" t="n">
+        <v>346.2733459472656</v>
+      </c>
+      <c r="G761" t="n">
+        <v>351.2233276367188</v>
+      </c>
+      <c r="H761" t="n">
+        <v>66063300</v>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>111200</v>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="C762" t="n">
+        <v>368.739990234375</v>
+      </c>
+      <c r="D762" t="n">
+        <v>368.739990234375</v>
+      </c>
+      <c r="E762" t="n">
+        <v>371.6133422851562</v>
+      </c>
+      <c r="F762" t="n">
+        <v>357.5299987792969</v>
+      </c>
+      <c r="G762" t="n">
+        <v>359.6166687011719</v>
+      </c>
+      <c r="H762" t="n">
+        <v>83739000</v>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>111201</v>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="C763" t="n">
+        <v>343.8533325195312</v>
+      </c>
+      <c r="D763" t="n">
+        <v>343.8533325195312</v>
+      </c>
+      <c r="E763" t="n">
+        <v>371.8666687011719</v>
+      </c>
+      <c r="F763" t="n">
+        <v>342.1799926757812</v>
+      </c>
+      <c r="G763" t="n">
+        <v>369.6900024414062</v>
+      </c>
+      <c r="H763" t="n">
+        <v>97209900</v>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>111202</v>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="C764" t="n">
+        <v>349.8699951171875</v>
+      </c>
+      <c r="D764" t="n">
+        <v>349.8699951171875</v>
+      </c>
+      <c r="E764" t="n">
+        <v>350.6666564941406</v>
+      </c>
+      <c r="F764" t="n">
+        <v>337.7933349609375</v>
+      </c>
+      <c r="G764" t="n">
+        <v>339.9599914550781</v>
+      </c>
+      <c r="H764" t="n">
+        <v>72924300</v>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>111203</v>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="C765" t="n">
+        <v>343.5033264160156</v>
+      </c>
+      <c r="D765" t="n">
+        <v>343.5033264160156</v>
+      </c>
+      <c r="E765" t="n">
+        <v>356.9299926757812</v>
+      </c>
+      <c r="F765" t="n">
+        <v>338.6866760253906</v>
+      </c>
+      <c r="G765" t="n">
+        <v>342.2033386230469</v>
+      </c>
+      <c r="H765" t="n">
+        <v>66743400</v>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>111204</v>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C766" t="n">
+        <v>331.8833312988281</v>
+      </c>
+      <c r="D766" t="n">
+        <v>331.8833312988281</v>
+      </c>
+      <c r="E766" t="n">
+        <v>351.5566711425781</v>
+      </c>
+      <c r="F766" t="n">
+        <v>331.6666564941406</v>
+      </c>
+      <c r="G766" t="n">
+        <v>347.2366638183594</v>
+      </c>
+      <c r="H766" t="n">
+        <v>75442500</v>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>111205</v>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C767" t="n">
+        <v>332.0899963378906</v>
+      </c>
+      <c r="D767" t="n">
+        <v>332.0899963378906</v>
+      </c>
+      <c r="E767" t="n">
+        <v>347.2200012207031</v>
+      </c>
+      <c r="F767" t="n">
+        <v>331.3333435058594</v>
+      </c>
+      <c r="G767" t="n">
+        <v>336.57666015625</v>
+      </c>
+      <c r="H767" t="n">
+        <v>70488600</v>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>111206</v>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C768" t="n">
+        <v>314.6333312988281</v>
+      </c>
+      <c r="D768" t="n">
+        <v>314.6333312988281</v>
+      </c>
+      <c r="E768" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="F768" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="G768" t="n">
+        <v>332.1133422851562</v>
+      </c>
+      <c r="H768" t="n">
+        <v>103416000</v>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>111207</v>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C769" t="n">
+        <v>310</v>
+      </c>
+      <c r="D769" t="n">
+        <v>310</v>
+      </c>
+      <c r="E769" t="n">
+        <v>311.1700134277344</v>
+      </c>
+      <c r="F769" t="n">
+        <v>283.8233337402344</v>
+      </c>
+      <c r="G769" t="n">
+        <v>301.586669921875</v>
+      </c>
+      <c r="H769" t="n">
+        <v>151565700</v>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>111208</v>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="C770" t="n">
+        <v>306.1333312988281</v>
+      </c>
+      <c r="D770" t="n">
+        <v>306.1333312988281</v>
+      </c>
+      <c r="E770" t="n">
+        <v>317.086669921875</v>
+      </c>
+      <c r="F770" t="n">
+        <v>301.0700073242188</v>
+      </c>
+      <c r="G770" t="n">
+        <v>304.7333374023438</v>
+      </c>
+      <c r="H770" t="n">
+        <v>86595900</v>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>111209</v>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C771" t="n">
+        <v>312.4700012207031</v>
+      </c>
+      <c r="D771" t="n">
+        <v>312.4700012207031</v>
+      </c>
+      <c r="E771" t="n">
+        <v>329.2300109863281</v>
+      </c>
+      <c r="F771" t="n">
+        <v>302</v>
+      </c>
+      <c r="G771" t="n">
+        <v>317.4766540527344</v>
+      </c>
+      <c r="H771" t="n">
+        <v>104867400</v>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>111210</v>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C772" t="n">
+        <v>276.3666687011719</v>
+      </c>
+      <c r="D772" t="n">
+        <v>276.3666687011719</v>
+      </c>
+      <c r="E772" t="n">
+        <v>311.7966613769531</v>
+      </c>
+      <c r="F772" t="n">
+        <v>276.3333435058594</v>
+      </c>
+      <c r="G772" t="n">
+        <v>311.1199951171875</v>
+      </c>
+      <c r="H772" t="n">
+        <v>147109500</v>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>111211</v>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C773" t="n">
+        <v>282.1166687011719</v>
+      </c>
+      <c r="D773" t="n">
+        <v>282.1166687011719</v>
+      </c>
+      <c r="E773" t="n">
+        <v>285.8333435058594</v>
+      </c>
+      <c r="F773" t="n">
+        <v>264.0033264160156</v>
+      </c>
+      <c r="G773" t="n">
+        <v>277.1866760253906</v>
+      </c>
+      <c r="H773" t="n">
+        <v>134789100</v>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>111212</v>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C774" t="n">
+        <v>312.239990234375</v>
+      </c>
+      <c r="D774" t="n">
+        <v>312.239990234375</v>
+      </c>
+      <c r="E774" t="n">
+        <v>312.663330078125</v>
+      </c>
+      <c r="F774" t="n">
+        <v>287.3500061035156</v>
+      </c>
+      <c r="G774" t="n">
+        <v>290.9033203125</v>
+      </c>
+      <c r="H774" t="n">
+        <v>104436000</v>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>111213</v>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C775" t="n">
+        <v>310.4166564941406</v>
+      </c>
+      <c r="D775" t="n">
+        <v>310.4166564941406</v>
+      </c>
+      <c r="E775" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="F775" t="n">
+        <v>301.6666564941406</v>
+      </c>
+      <c r="G775" t="n">
+        <v>311.7366638183594</v>
+      </c>
+      <c r="H775" t="n">
+        <v>73138200</v>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>111214</v>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C776" t="n">
+        <v>301.8866577148438</v>
+      </c>
+      <c r="D776" t="n">
+        <v>301.8866577148438</v>
+      </c>
+      <c r="E776" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="F776" t="n">
+        <v>296.4700012207031</v>
+      </c>
+      <c r="G776" t="n">
+        <v>309.3933410644531</v>
+      </c>
+      <c r="H776" t="n">
+        <v>66792900</v>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>111215</v>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C777" t="n">
+        <v>297.0466613769531</v>
+      </c>
+      <c r="D777" t="n">
+        <v>297.0466613769531</v>
+      </c>
+      <c r="E777" t="n">
+        <v>312.3333435058594</v>
+      </c>
+      <c r="F777" t="n">
+        <v>293.5066528320312</v>
+      </c>
+      <c r="G777" t="n">
+        <v>294</v>
+      </c>
+      <c r="H777" t="n">
+        <v>78855600</v>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>111216</v>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="C778" t="n">
+        <v>307.7733459472656</v>
+      </c>
+      <c r="D778" t="n">
+        <v>307.7733459472656</v>
+      </c>
+      <c r="E778" t="n">
+        <v>312.1666564941406</v>
+      </c>
+      <c r="F778" t="n">
+        <v>293.7233276367188</v>
+      </c>
+      <c r="G778" t="n">
+        <v>299.0733337402344</v>
+      </c>
+      <c r="H778" t="n">
+        <v>73625400</v>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>111217</v>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C779" t="n">
+        <v>302.4466552734375</v>
+      </c>
+      <c r="D779" t="n">
+        <v>302.4466552734375</v>
+      </c>
+      <c r="E779" t="n">
+        <v>315.92333984375</v>
+      </c>
+      <c r="F779" t="n">
+        <v>300.9033203125</v>
+      </c>
+      <c r="G779" t="n">
+        <v>307.9299926757812</v>
+      </c>
+      <c r="H779" t="n">
+        <v>60994500</v>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>111218</v>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C780" t="n">
+        <v>307.3333435058594</v>
+      </c>
+      <c r="D780" t="n">
+        <v>307.3333435058594</v>
+      </c>
+      <c r="E780" t="n">
+        <v>308.7633361816406</v>
+      </c>
+      <c r="F780" t="n">
+        <v>298.2666625976562</v>
+      </c>
+      <c r="G780" t="n">
+        <v>301.8433227539062</v>
+      </c>
+      <c r="H780" t="n">
+        <v>50729100</v>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>111219</v>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C781" t="n">
+        <v>310.6666564941406</v>
+      </c>
+      <c r="D781" t="n">
+        <v>310.6666564941406</v>
+      </c>
+      <c r="E781" t="n">
+        <v>315.42333984375</v>
+      </c>
+      <c r="F781" t="n">
+        <v>306.6666564941406</v>
+      </c>
+      <c r="G781" t="n">
+        <v>311.6666564941406</v>
+      </c>
+      <c r="H781" t="n">
+        <v>52259400</v>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>111220</v>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C782" t="n">
+        <v>301.5166625976562</v>
+      </c>
+      <c r="D782" t="n">
+        <v>301.5166625976562</v>
+      </c>
+      <c r="E782" t="n">
+        <v>314.6033325195312</v>
+      </c>
+      <c r="F782" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="G782" t="n">
+        <v>302.7900085449219</v>
+      </c>
+      <c r="H782" t="n">
+        <v>66126900</v>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>111221</v>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="C783" t="n">
+        <v>286.6666564941406</v>
+      </c>
+      <c r="D783" t="n">
+        <v>286.6666564941406</v>
+      </c>
+      <c r="E783" t="n">
+        <v>305.3200073242188</v>
+      </c>
+      <c r="F783" t="n">
+        <v>283.5666809082031</v>
+      </c>
+      <c r="G783" t="n">
+        <v>303.2099914550781</v>
+      </c>
+      <c r="H783" t="n">
+        <v>79645800</v>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>111222</v>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C784" t="n">
+        <v>291.9200134277344</v>
+      </c>
+      <c r="D784" t="n">
+        <v>291.9200134277344</v>
+      </c>
+      <c r="E784" t="n">
+        <v>299.6266784667969</v>
+      </c>
+      <c r="F784" t="n">
+        <v>284.3833312988281</v>
+      </c>
+      <c r="G784" t="n">
+        <v>287.1900024414062</v>
+      </c>
+      <c r="H784" t="n">
+        <v>67756500</v>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>111223</v>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="C785" t="n">
+        <v>307.4766540527344</v>
+      </c>
+      <c r="D785" t="n">
+        <v>307.4766540527344</v>
+      </c>
+      <c r="E785" t="n">
+        <v>307.6666564941406</v>
+      </c>
+      <c r="F785" t="n">
+        <v>297.7933349609375</v>
+      </c>
+      <c r="G785" t="n">
+        <v>300</v>
+      </c>
+      <c r="H785" t="n">
+        <v>57286200</v>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>111224</v>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="C786" t="n">
+        <v>307.7966613769531</v>
+      </c>
+      <c r="D786" t="n">
+        <v>307.7966613769531</v>
+      </c>
+      <c r="E786" t="n">
+        <v>308.8099975585938</v>
+      </c>
+      <c r="F786" t="n">
+        <v>300.4033203125</v>
+      </c>
+      <c r="G786" t="n">
+        <v>304.6833190917969</v>
+      </c>
+      <c r="H786" t="n">
+        <v>51294300</v>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>111225</v>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="C787" t="n">
+        <v>292.1166687011719</v>
+      </c>
+      <c r="D787" t="n">
+        <v>292.1166687011719</v>
+      </c>
+      <c r="E787" t="n">
+        <v>306.1666564941406</v>
+      </c>
+      <c r="F787" t="n">
+        <v>291.3666687011719</v>
+      </c>
+      <c r="G787" t="n">
+        <v>304.4200134277344</v>
+      </c>
+      <c r="H787" t="n">
+        <v>55178400</v>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>111226</v>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="C788" t="n">
+        <v>285.6600036621094</v>
+      </c>
+      <c r="D788" t="n">
+        <v>285.6600036621094</v>
+      </c>
+      <c r="E788" t="n">
+        <v>295.6233215332031</v>
+      </c>
+      <c r="F788" t="n">
+        <v>279.2033386230469</v>
+      </c>
+      <c r="G788" t="n">
+        <v>295.3333435058594</v>
+      </c>
+      <c r="H788" t="n">
+        <v>68501700</v>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>111227</v>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C789" t="n">
+        <v>273.8433227539062</v>
+      </c>
+      <c r="D789" t="n">
+        <v>273.8433227539062</v>
+      </c>
+      <c r="E789" t="n">
+        <v>285.57666015625</v>
+      </c>
+      <c r="F789" t="n">
+        <v>267.0333251953125</v>
+      </c>
+      <c r="G789" t="n">
+        <v>278.0433349609375</v>
+      </c>
+      <c r="H789" t="n">
+        <v>83288100</v>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>111228</v>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="C790" t="n">
+        <v>254.6799926757812</v>
+      </c>
+      <c r="D790" t="n">
+        <v>254.6799926757812</v>
+      </c>
+      <c r="E790" t="n">
+        <v>278.4333190917969</v>
+      </c>
+      <c r="F790" t="n">
+        <v>253.5200042724609</v>
+      </c>
+      <c r="G790" t="n">
+        <v>276.8099975585938</v>
+      </c>
+      <c r="H790" t="n">
+        <v>95256900</v>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>111229</v>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="C791" t="n">
+        <v>266.92333984375</v>
+      </c>
+      <c r="D791" t="n">
+        <v>266.92333984375</v>
+      </c>
+      <c r="E791" t="n">
+        <v>267.4933471679688</v>
+      </c>
+      <c r="F791" t="n">
+        <v>233.3333282470703</v>
+      </c>
+      <c r="G791" t="n">
+        <v>233.4633331298828</v>
+      </c>
+      <c r="H791" t="n">
+        <v>135322200</v>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>111230</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="C792" t="n">
+        <v>269.9566650390625</v>
+      </c>
+      <c r="D792" t="n">
+        <v>269.9566650390625</v>
+      </c>
+      <c r="E792" t="n">
+        <v>273.1666564941406</v>
+      </c>
+      <c r="F792" t="n">
+        <v>260.7999877929688</v>
+      </c>
+      <c r="G792" t="n">
+        <v>269.7433471679688</v>
+      </c>
+      <c r="H792" t="n">
+        <v>76067700</v>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>111231</v>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C793" t="n">
+        <v>290.1433410644531</v>
+      </c>
+      <c r="D793" t="n">
+        <v>290.1433410644531</v>
+      </c>
+      <c r="E793" t="n">
+        <v>292.2866821289062</v>
+      </c>
+      <c r="F793" t="n">
+        <v>271.5700073242188</v>
+      </c>
+      <c r="G793" t="n">
+        <v>271.6700134277344</v>
+      </c>
+      <c r="H793" t="n">
+        <v>99006900</v>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>111232</v>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C794" t="n">
+        <v>288.1233215332031</v>
+      </c>
+      <c r="D794" t="n">
+        <v>288.1233215332031</v>
+      </c>
+      <c r="E794" t="n">
+        <v>296.6266784667969</v>
+      </c>
+      <c r="F794" t="n">
+        <v>284.5933227539062</v>
+      </c>
+      <c r="G794" t="n">
+        <v>289.8933410644531</v>
+      </c>
+      <c r="H794" t="n">
+        <v>74766900</v>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>111233</v>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="C795" t="n">
+        <v>293.2966613769531</v>
+      </c>
+      <c r="D795" t="n">
+        <v>293.2966613769531</v>
+      </c>
+      <c r="E795" t="n">
+        <v>295.4933471679688</v>
+      </c>
+      <c r="F795" t="n">
+        <v>281.42333984375</v>
+      </c>
+      <c r="G795" t="n">
+        <v>290.7099914550781</v>
+      </c>
+      <c r="H795" t="n">
+        <v>74643300</v>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>111234</v>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="C796" t="n">
+        <v>279.7633361816406</v>
+      </c>
+      <c r="D796" t="n">
+        <v>279.7633361816406</v>
+      </c>
+      <c r="E796" t="n">
+        <v>295.4800109863281</v>
+      </c>
+      <c r="F796" t="n">
+        <v>277.5333251953125</v>
+      </c>
+      <c r="G796" t="n">
+        <v>292.92333984375</v>
+      </c>
+      <c r="H796" t="n">
+        <v>61623600</v>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>111235</v>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="C797" t="n">
+        <v>279.4299926757812</v>
+      </c>
+      <c r="D797" t="n">
+        <v>279.4299926757812</v>
+      </c>
+      <c r="E797" t="n">
+        <v>285.2166748046875</v>
+      </c>
+      <c r="F797" t="n">
+        <v>275.0533447265625</v>
+      </c>
+      <c r="G797" t="n">
+        <v>283.0333251953125</v>
+      </c>
+      <c r="H797" t="n">
+        <v>66999600</v>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>111236</v>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C798" t="n">
+        <v>268.1933288574219</v>
+      </c>
+      <c r="D798" t="n">
+        <v>268.1933288574219</v>
+      </c>
+      <c r="E798" t="n">
+        <v>288.7133178710938</v>
+      </c>
+      <c r="F798" t="n">
+        <v>268.1900024414062</v>
+      </c>
+      <c r="G798" t="n">
+        <v>285.4333190917969</v>
+      </c>
+      <c r="H798" t="n">
+        <v>72494100</v>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>111237</v>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="C799" t="n">
+        <v>274.7999877929688</v>
+      </c>
+      <c r="D799" t="n">
+        <v>274.7999877929688</v>
+      </c>
+      <c r="E799" t="n">
+        <v>283.3299865722656</v>
+      </c>
+      <c r="F799" t="n">
+        <v>260.7233276367188</v>
+      </c>
+      <c r="G799" t="n">
+        <v>265.1766662597656</v>
+      </c>
+      <c r="H799" t="n">
+        <v>80399100</v>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>111238</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="C800" t="n">
+        <v>286.3233337402344</v>
+      </c>
+      <c r="D800" t="n">
+        <v>286.3233337402344</v>
+      </c>
+      <c r="E800" t="n">
+        <v>286.8533325195312</v>
+      </c>
+      <c r="F800" t="n">
+        <v>277.336669921875</v>
+      </c>
+      <c r="G800" t="n">
+        <v>279.82666015625</v>
+      </c>
+      <c r="H800" t="n">
+        <v>59184000</v>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>111239</v>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="C801" t="n">
+        <v>279.4333190917969</v>
+      </c>
+      <c r="D801" t="n">
+        <v>279.4333190917969</v>
+      </c>
+      <c r="E801" t="n">
+        <v>284.8166809082031</v>
+      </c>
+      <c r="F801" t="n">
+        <v>270.1199951171875</v>
+      </c>
+      <c r="G801" t="n">
+        <v>283.8166809082031</v>
+      </c>
+      <c r="H801" t="n">
+        <v>58648500</v>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>111240</v>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="C802" t="n">
+        <v>265.1166687011719</v>
+      </c>
+      <c r="D802" t="n">
+        <v>265.1166687011719</v>
+      </c>
+      <c r="E802" t="n">
+        <v>281.2666625976562</v>
+      </c>
+      <c r="F802" t="n">
+        <v>264.5899963378906</v>
+      </c>
+      <c r="G802" t="n">
+        <v>280.0666809082031</v>
+      </c>
+      <c r="H802" t="n">
+        <v>67037100</v>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>111241</v>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C803" t="n">
+        <v>255.4566650390625</v>
+      </c>
+      <c r="D803" t="n">
+        <v>255.4566650390625</v>
+      </c>
+      <c r="E803" t="n">
+        <v>266.8999938964844</v>
+      </c>
+      <c r="F803" t="n">
+        <v>252.0133361816406</v>
+      </c>
+      <c r="G803" t="n">
+        <v>260.2033386230469</v>
+      </c>
+      <c r="H803" t="n">
+        <v>71152200</v>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>111242</v>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="C804" t="n">
+        <v>267.2966613769531</v>
+      </c>
+      <c r="D804" t="n">
+        <v>267.2966613769531</v>
+      </c>
+      <c r="E804" t="n">
+        <v>268.5233459472656</v>
+      </c>
+      <c r="F804" t="n">
+        <v>252.1900024414062</v>
+      </c>
+      <c r="G804" t="n">
+        <v>258.42333984375</v>
+      </c>
+      <c r="H804" t="n">
+        <v>66841200</v>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>111243</v>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C805" t="n">
+        <v>280.07666015625</v>
+      </c>
+      <c r="D805" t="n">
+        <v>280.07666015625</v>
+      </c>
+      <c r="E805" t="n">
+        <v>280.6666564941406</v>
+      </c>
+      <c r="F805" t="n">
+        <v>267.4200134277344</v>
+      </c>
+      <c r="G805" t="n">
+        <v>269.6666564941406</v>
+      </c>
+      <c r="H805" t="n">
+        <v>84028800</v>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>111244</v>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="C806" t="n">
+        <v>290.5333251953125</v>
+      </c>
+      <c r="D806" t="n">
+        <v>290.5333251953125</v>
+      </c>
+      <c r="E806" t="n">
+        <v>291.6666564941406</v>
+      </c>
+      <c r="F806" t="n">
+        <v>275.239990234375</v>
+      </c>
+      <c r="G806" t="n">
+        <v>276.9966735839844</v>
+      </c>
+      <c r="H806" t="n">
+        <v>66582900</v>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>111245</v>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C807" t="n">
+        <v>301.7966613769531</v>
+      </c>
+      <c r="D807" t="n">
+        <v>301.7966613769531</v>
+      </c>
+      <c r="E807" t="n">
+        <v>302.6166687011719</v>
+      </c>
+      <c r="F807" t="n">
+        <v>289.1300048828125</v>
+      </c>
+      <c r="G807" t="n">
+        <v>291.4966735839844</v>
+      </c>
+      <c r="H807" t="n">
+        <v>100414200</v>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>111246</v>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C808" t="n">
+        <v>307.0533447265625</v>
+      </c>
+      <c r="D808" t="n">
+        <v>307.0533447265625</v>
+      </c>
+      <c r="E808" t="n">
+        <v>314.2833251953125</v>
+      </c>
+      <c r="F808" t="n">
+        <v>302.3633422851562</v>
+      </c>
+      <c r="G808" t="n">
+        <v>304.9933471679688</v>
+      </c>
+      <c r="H808" t="n">
+        <v>81981600</v>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>111247</v>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C809" t="n">
+        <v>331.32666015625</v>
+      </c>
+      <c r="D809" t="n">
+        <v>331.32666015625</v>
+      </c>
+      <c r="E809" t="n">
+        <v>332.6199951171875</v>
+      </c>
+      <c r="F809" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="G809" t="n">
+        <v>310</v>
+      </c>
+      <c r="H809" t="n">
+        <v>105868500</v>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>111248</v>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C810" t="n">
+        <v>333.0366821289062</v>
+      </c>
+      <c r="D810" t="n">
+        <v>333.0366821289062</v>
+      </c>
+      <c r="E810" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="F810" t="n">
+        <v>325.4666748046875</v>
+      </c>
+      <c r="G810" t="n">
+        <v>326.6466674804688</v>
+      </c>
+      <c r="H810" t="n">
+        <v>120676200</v>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>111249</v>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C811" t="n">
+        <v>337.9733276367188</v>
+      </c>
+      <c r="D811" t="n">
+        <v>337.9733276367188</v>
+      </c>
+      <c r="E811" t="n">
+        <v>341.4966735839844</v>
+      </c>
+      <c r="F811" t="n">
+        <v>329.6000061035156</v>
+      </c>
+      <c r="G811" t="n">
+        <v>336.57666015625</v>
+      </c>
+      <c r="H811" t="n">
+        <v>68920800</v>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>111250</v>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C812" t="n">
+        <v>336.8800048828125</v>
+      </c>
+      <c r="D812" t="n">
+        <v>336.8800048828125</v>
+      </c>
+      <c r="E812" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="F812" t="n">
+        <v>332.4400024414062</v>
+      </c>
+      <c r="G812" t="n">
+        <v>336</v>
+      </c>
+      <c r="H812" t="n">
+        <v>62031600</v>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>111251</v>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C813" t="n">
+        <v>363.9466552734375</v>
+      </c>
+      <c r="D813" t="n">
+        <v>363.9466552734375</v>
+      </c>
+      <c r="E813" t="n">
+        <v>365.9599914550781</v>
+      </c>
+      <c r="F813" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="G813" t="n">
+        <v>355.0333251953125</v>
+      </c>
+      <c r="H813" t="n">
+        <v>102506100</v>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>111252</v>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C814" t="n">
+        <v>366.5233459472656</v>
+      </c>
+      <c r="D814" t="n">
+        <v>366.5233459472656</v>
+      </c>
+      <c r="E814" t="n">
+        <v>371.5899963378906</v>
+      </c>
+      <c r="F814" t="n">
+        <v>357.7033386230469</v>
+      </c>
+      <c r="G814" t="n">
+        <v>369.3299865722656</v>
+      </c>
+      <c r="H814" t="n">
+        <v>73614900</v>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>111253</v>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C815" t="n">
+        <v>364.663330078125</v>
+      </c>
+      <c r="D815" t="n">
+        <v>364.663330078125</v>
+      </c>
+      <c r="E815" t="n">
+        <v>371.3166809082031</v>
+      </c>
+      <c r="F815" t="n">
+        <v>361.3333435058594</v>
+      </c>
+      <c r="G815" t="n">
+        <v>363.7233276367188</v>
+      </c>
+      <c r="H815" t="n">
+        <v>59865000</v>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>111254</v>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C816" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="D816" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="E816" t="n">
+        <v>367.7133178710938</v>
+      </c>
+      <c r="F816" t="n">
+        <v>358.8800048828125</v>
+      </c>
+      <c r="G816" t="n">
+        <v>364.8566589355469</v>
+      </c>
+      <c r="H816" t="n">
+        <v>48992700</v>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>111255</v>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C817" t="n">
+        <v>361.5299987792969</v>
+      </c>
+      <c r="D817" t="n">
+        <v>361.5299987792969</v>
+      </c>
+      <c r="E817" t="n">
+        <v>364.9166564941406</v>
+      </c>
+      <c r="F817" t="n">
+        <v>355.5466613769531</v>
+      </c>
+      <c r="G817" t="n">
+        <v>360.3833312988281</v>
+      </c>
+      <c r="H817" t="n">
+        <v>54263100</v>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>111256</v>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C818" t="n">
+        <v>381.8166809082031</v>
+      </c>
+      <c r="D818" t="n">
+        <v>381.8166809082031</v>
+      </c>
+      <c r="E818" t="n">
+        <v>383.3033447265625</v>
+      </c>
+      <c r="F818" t="n">
+        <v>357.510009765625</v>
+      </c>
+      <c r="G818" t="n">
+        <v>363.1266784667969</v>
+      </c>
+      <c r="H818" t="n">
+        <v>82035900</v>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>111257</v>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C819" t="n">
+        <v>363.7533264160156</v>
+      </c>
+      <c r="D819" t="n">
+        <v>363.7533264160156</v>
+      </c>
+      <c r="E819" t="n">
+        <v>384.2900085449219</v>
+      </c>
+      <c r="F819" t="n">
+        <v>362.4333190917969</v>
+      </c>
+      <c r="G819" t="n">
+        <v>378.7666625976562</v>
+      </c>
+      <c r="H819" t="n">
+        <v>80075100</v>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>111258</v>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="C820" t="n">
+        <v>348.586669921875</v>
+      </c>
+      <c r="D820" t="n">
+        <v>348.586669921875</v>
+      </c>
+      <c r="E820" t="n">
+        <v>359.6666564941406</v>
+      </c>
+      <c r="F820" t="n">
+        <v>342.5666809082031</v>
+      </c>
+      <c r="G820" t="n">
+        <v>357.8233337402344</v>
+      </c>
+      <c r="H820" t="n">
+        <v>89348400</v>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>111259</v>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C821" t="n">
+        <v>352.4200134277344</v>
+      </c>
+      <c r="D821" t="n">
+        <v>352.4200134277344</v>
+      </c>
+      <c r="E821" t="n">
+        <v>358.8633422851562</v>
+      </c>
+      <c r="F821" t="n">
+        <v>340.5133361816406</v>
+      </c>
+      <c r="G821" t="n">
+        <v>350.7966613769531</v>
+      </c>
+      <c r="H821" t="n">
+        <v>79447200</v>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>111260</v>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="C822" t="n">
+        <v>341.8299865722656</v>
+      </c>
+      <c r="D822" t="n">
+        <v>341.8299865722656</v>
+      </c>
+      <c r="E822" t="n">
+        <v>349.4800109863281</v>
+      </c>
+      <c r="F822" t="n">
+        <v>340.8133239746094</v>
+      </c>
+      <c r="G822" t="n">
+        <v>347.7366638183594</v>
+      </c>
+      <c r="H822" t="n">
+        <v>55013700</v>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>111261</v>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C823" t="n">
+        <v>325.3099975585938</v>
+      </c>
+      <c r="D823" t="n">
+        <v>325.3099975585938</v>
+      </c>
+      <c r="E823" t="n">
+        <v>336.1566772460938</v>
+      </c>
+      <c r="F823" t="n">
+        <v>324.8800048828125</v>
+      </c>
+      <c r="G823" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="H823" t="n">
+        <v>59357100</v>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>111262</v>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="C824" t="n">
+        <v>328.9833374023438</v>
+      </c>
+      <c r="D824" t="n">
+        <v>328.9833374023438</v>
+      </c>
+      <c r="E824" t="n">
+        <v>340.3966674804688</v>
+      </c>
+      <c r="F824" t="n">
+        <v>325.5333251953125</v>
+      </c>
+      <c r="G824" t="n">
+        <v>332.5466613769531</v>
+      </c>
+      <c r="H824" t="n">
+        <v>65976000</v>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>111263</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="C825" t="n">
+        <v>340.7900085449219</v>
+      </c>
+      <c r="D825" t="n">
+        <v>340.7900085449219</v>
+      </c>
+      <c r="E825" t="n">
+        <v>342.0799865722656</v>
+      </c>
+      <c r="F825" t="n">
+        <v>324.3666687011719</v>
+      </c>
+      <c r="G825" t="n">
+        <v>327.0266723632812</v>
+      </c>
+      <c r="H825" t="n">
+        <v>55121100</v>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>111264</v>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="C826" t="n">
+        <v>328.3333435058594</v>
+      </c>
+      <c r="D826" t="n">
+        <v>328.3333435058594</v>
+      </c>
+      <c r="E826" t="n">
+        <v>337.5700073242188</v>
+      </c>
+      <c r="F826" t="n">
+        <v>327.3966674804688</v>
+      </c>
+      <c r="G826" t="n">
+        <v>333.0966796875</v>
+      </c>
+      <c r="H826" t="n">
+        <v>58422300</v>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>111265</v>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C827" t="n">
+        <v>334.7633361816406</v>
+      </c>
+      <c r="D827" t="n">
+        <v>334.7633361816406</v>
+      </c>
+      <c r="E827" t="n">
+        <v>338.3066711425781</v>
+      </c>
+      <c r="F827" t="n">
+        <v>324.4700012207031</v>
+      </c>
+      <c r="G827" t="n">
+        <v>329.6766662597656</v>
+      </c>
+      <c r="H827" t="n">
+        <v>51715200</v>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>111266</v>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C828" t="n">
+        <v>342.7166748046875</v>
+      </c>
+      <c r="D828" t="n">
+        <v>342.7166748046875</v>
+      </c>
+      <c r="E828" t="n">
+        <v>344.9800109863281</v>
+      </c>
+      <c r="F828" t="n">
+        <v>331.7766723632812</v>
+      </c>
+      <c r="G828" t="n">
+        <v>335.0199890136719</v>
+      </c>
+      <c r="H828" t="n">
+        <v>49847700</v>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>111267</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="C829" t="n">
+        <v>325.7333374023438</v>
+      </c>
+      <c r="D829" t="n">
+        <v>325.7333374023438</v>
+      </c>
+      <c r="E829" t="n">
+        <v>344.6666564941406</v>
+      </c>
+      <c r="F829" t="n">
+        <v>325.0833435058594</v>
+      </c>
+      <c r="G829" t="n">
+        <v>343.3333435058594</v>
+      </c>
+      <c r="H829" t="n">
+        <v>70711200</v>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>111268</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="C830" t="n">
+        <v>336.260009765625</v>
+      </c>
+      <c r="D830" t="n">
+        <v>336.260009765625</v>
+      </c>
+      <c r="E830" t="n">
+        <v>364.0733337402344</v>
+      </c>
+      <c r="F830" t="n">
+        <v>332.1400146484375</v>
+      </c>
+      <c r="G830" t="n">
+        <v>358.2433471679688</v>
+      </c>
+      <c r="H830" t="n">
+        <v>105416400</v>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>111269</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C831" t="n">
+        <v>335.0166625976562</v>
+      </c>
+      <c r="D831" t="n">
+        <v>335.0166625976562</v>
+      </c>
+      <c r="E831" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="F831" t="n">
+        <v>331.3333435058594</v>
+      </c>
+      <c r="G831" t="n">
+        <v>338.3033447265625</v>
+      </c>
+      <c r="H831" t="n">
+        <v>69696600</v>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>111270</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C832" t="n">
+        <v>332.67333984375</v>
+      </c>
+      <c r="D832" t="n">
+        <v>332.67333984375</v>
+      </c>
+      <c r="E832" t="n">
+        <v>336.2066650390625</v>
+      </c>
+      <c r="F832" t="n">
+        <v>325.1000061035156</v>
+      </c>
+      <c r="G832" t="n">
+        <v>326.3233337402344</v>
+      </c>
+      <c r="H832" t="n">
+        <v>68341200</v>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>111271</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="C833" t="n">
+        <v>292.1400146484375</v>
+      </c>
+      <c r="D833" t="n">
+        <v>292.1400146484375</v>
+      </c>
+      <c r="E833" t="n">
+        <v>333.3333435058594</v>
+      </c>
+      <c r="F833" t="n">
+        <v>291.6666564941406</v>
+      </c>
+      <c r="G833" t="n">
+        <v>331.8099975585938</v>
+      </c>
+      <c r="H833" t="n">
+        <v>136133700</v>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>111272</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="C834" t="n">
+        <v>293.836669921875</v>
+      </c>
+      <c r="D834" t="n">
+        <v>293.836669921875</v>
+      </c>
+      <c r="E834" t="n">
+        <v>306</v>
+      </c>
+      <c r="F834" t="n">
+        <v>292.4533386230469</v>
+      </c>
+      <c r="G834" t="n">
+        <v>299.5266723632812</v>
+      </c>
+      <c r="H834" t="n">
+        <v>76956300</v>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>111273</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="C835" t="n">
+        <v>292.5033264160156</v>
+      </c>
+      <c r="D835" t="n">
+        <v>292.5033264160156</v>
+      </c>
+      <c r="E835" t="n">
+        <v>300</v>
+      </c>
+      <c r="F835" t="n">
+        <v>273.8999938964844</v>
+      </c>
+      <c r="G835" t="n">
+        <v>299.9933471679688</v>
+      </c>
+      <c r="H835" t="n">
+        <v>124948500</v>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>111274</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="C836" t="n">
+        <v>290.2533264160156</v>
+      </c>
+      <c r="D836" t="n">
+        <v>290.2533264160156</v>
+      </c>
+      <c r="E836" t="n">
+        <v>311.4666748046875</v>
+      </c>
+      <c r="F836" t="n">
+        <v>290</v>
+      </c>
+      <c r="G836" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="H836" t="n">
+        <v>88133100</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>111275</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C837" t="n">
+        <v>300.9800109863281</v>
+      </c>
+      <c r="D837" t="n">
+        <v>300.9800109863281</v>
+      </c>
+      <c r="E837" t="n">
+        <v>302.1199951171875</v>
+      </c>
+      <c r="F837" t="n">
+        <v>282.6766662597656</v>
+      </c>
+      <c r="G837" t="n">
+        <v>286.92333984375</v>
+      </c>
+      <c r="H837" t="n">
+        <v>75781500</v>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>111276</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="C838" t="n">
+        <v>303.0833435058594</v>
+      </c>
+      <c r="D838" t="n">
+        <v>303.0833435058594</v>
+      </c>
+      <c r="E838" t="n">
+        <v>308.0266723632812</v>
+      </c>
+      <c r="F838" t="n">
+        <v>296.1966552734375</v>
+      </c>
+      <c r="G838" t="n">
+        <v>301.0599975585938</v>
+      </c>
+      <c r="H838" t="n">
+        <v>63709500</v>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>111277</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="C839" t="n">
+        <v>317.5400085449219</v>
+      </c>
+      <c r="D839" t="n">
+        <v>317.5400085449219</v>
+      </c>
+      <c r="E839" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="F839" t="n">
+        <v>295.0933227539062</v>
+      </c>
+      <c r="G839" t="n">
+        <v>301.3133239746094</v>
+      </c>
+      <c r="H839" t="n">
+        <v>81643800</v>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>111278</v>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="C840" t="n">
+        <v>291.0933227539062</v>
+      </c>
+      <c r="D840" t="n">
+        <v>291.0933227539062</v>
+      </c>
+      <c r="E840" t="n">
+        <v>315.2000122070312</v>
+      </c>
+      <c r="F840" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="G840" t="n">
+        <v>313.0066528320312</v>
+      </c>
+      <c r="H840" t="n">
+        <v>92519100</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>111279</v>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C841" t="n">
+        <v>288.5499877929688</v>
+      </c>
+      <c r="D841" t="n">
+        <v>288.5499877929688</v>
+      </c>
+      <c r="E841" t="n">
+        <v>296</v>
+      </c>
+      <c r="F841" t="n">
+        <v>281.0366821289062</v>
+      </c>
+      <c r="G841" t="n">
+        <v>295.6666564941406</v>
+      </c>
+      <c r="H841" t="n">
+        <v>72903000</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>111280</v>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C842" t="n">
+        <v>262.3699951171875</v>
+      </c>
+      <c r="D842" t="n">
+        <v>262.3699951171875</v>
+      </c>
+      <c r="E842" t="n">
+        <v>281.8766784667969</v>
+      </c>
+      <c r="F842" t="n">
+        <v>260.3833312988281</v>
+      </c>
+      <c r="G842" t="n">
+        <v>278.8166809082031</v>
+      </c>
+      <c r="H842" t="n">
+        <v>90810300</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>111281</v>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="C843" t="n">
+        <v>266.6799926757812</v>
+      </c>
+      <c r="D843" t="n">
+        <v>266.6799926757812</v>
+      </c>
+      <c r="E843" t="n">
+        <v>275.1199951171875</v>
+      </c>
+      <c r="F843" t="n">
+        <v>258.0833435058594</v>
+      </c>
+      <c r="G843" t="n">
+        <v>273.1033325195312</v>
+      </c>
+      <c r="H843" t="n">
+        <v>84401700</v>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>111282</v>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="C844" t="n">
+        <v>244.6666717529297</v>
+      </c>
+      <c r="D844" t="n">
+        <v>244.6666717529297</v>
+      </c>
+      <c r="E844" t="n">
+        <v>269.92333984375</v>
+      </c>
+      <c r="F844" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="G844" t="n">
+        <v>265</v>
+      </c>
+      <c r="H844" t="n">
+        <v>97224600</v>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>111283</v>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="C845" t="n">
+        <v>242.6666717529297</v>
+      </c>
+      <c r="D845" t="n">
+        <v>242.6666717529297</v>
+      </c>
+      <c r="E845" t="n">
+        <v>253.2200012207031</v>
+      </c>
+      <c r="F845" t="n">
+        <v>226.6666717529297</v>
+      </c>
+      <c r="G845" t="n">
+        <v>233.6666717529297</v>
+      </c>
+      <c r="H845" t="n">
+        <v>140313000</v>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>111284</v>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="C846" t="n">
+        <v>256.5299987792969</v>
+      </c>
+      <c r="D846" t="n">
+        <v>256.5299987792969</v>
+      </c>
+      <c r="E846" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="F846" t="n">
+        <v>250.5233306884766</v>
+      </c>
+      <c r="G846" t="n">
+        <v>257.82666015625</v>
+      </c>
+      <c r="H846" t="n">
+        <v>92150700</v>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>111285</v>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C847" t="n">
+        <v>241.4566650390625</v>
+      </c>
+      <c r="D847" t="n">
+        <v>241.4566650390625</v>
+      </c>
+      <c r="E847" t="n">
+        <v>256.586669921875</v>
+      </c>
+      <c r="F847" t="n">
+        <v>239.6966705322266</v>
+      </c>
+      <c r="G847" t="n">
+        <v>255.7200012207031</v>
+      </c>
+      <c r="H847" t="n">
+        <v>86098500</v>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>111286</v>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="C848" t="n">
+        <v>253.8699951171875</v>
+      </c>
+      <c r="D848" t="n">
+        <v>253.8699951171875</v>
+      </c>
+      <c r="E848" t="n">
+        <v>254.82666015625</v>
+      </c>
+      <c r="F848" t="n">
+        <v>242.9499969482422</v>
+      </c>
+      <c r="G848" t="n">
+        <v>249.1199951171875</v>
+      </c>
+      <c r="H848" t="n">
+        <v>80236200</v>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>111287</v>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="C849" t="n">
+        <v>236.6033325195312</v>
+      </c>
+      <c r="D849" t="n">
+        <v>236.6033325195312</v>
+      </c>
+      <c r="E849" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="F849" t="n">
+        <v>233.6033325195312</v>
+      </c>
+      <c r="G849" t="n">
+        <v>248.17333984375</v>
+      </c>
+      <c r="H849" t="n">
+        <v>87811800</v>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>111288</v>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C850" t="n">
+        <v>236.4733276367188</v>
+      </c>
+      <c r="D850" t="n">
+        <v>236.4733276367188</v>
+      </c>
+      <c r="E850" t="n">
+        <v>244.6666717529297</v>
+      </c>
+      <c r="F850" t="n">
+        <v>231.3699951171875</v>
+      </c>
+      <c r="G850" t="n">
+        <v>235.6666717529297</v>
+      </c>
+      <c r="H850" t="n">
+        <v>90296700</v>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>111289</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C851" t="n">
+        <v>221.3000030517578</v>
+      </c>
+      <c r="D851" t="n">
+        <v>221.3000030517578</v>
+      </c>
+      <c r="E851" t="n">
+        <v>240.5266723632812</v>
+      </c>
+      <c r="F851" t="n">
+        <v>211</v>
+      </c>
+      <c r="G851" t="n">
+        <v>237.9966735839844</v>
+      </c>
+      <c r="H851" t="n">
+        <v>144973200</v>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>111290</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C852" t="n">
+        <v>224.9666595458984</v>
+      </c>
+      <c r="D852" t="n">
+        <v>224.9666595458984</v>
+      </c>
+      <c r="E852" t="n">
+        <v>226.6533355712891</v>
+      </c>
+      <c r="F852" t="n">
+        <v>212.6866607666016</v>
+      </c>
+      <c r="G852" t="n">
+        <v>218.3399963378906</v>
+      </c>
+      <c r="H852" t="n">
+        <v>88903500</v>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>111291</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="C853" t="n">
+        <v>209.3866729736328</v>
+      </c>
+      <c r="D853" t="n">
+        <v>209.3866729736328</v>
+      </c>
+      <c r="E853" t="n">
+        <v>217.9733276367188</v>
+      </c>
+      <c r="F853" t="n">
+        <v>206.8566741943359</v>
+      </c>
+      <c r="G853" t="n">
+        <v>217.8433380126953</v>
+      </c>
+      <c r="H853" t="n">
+        <v>89092500</v>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>111292</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="C854" t="n">
+        <v>219.6000061035156</v>
+      </c>
+      <c r="D854" t="n">
+        <v>219.6000061035156</v>
+      </c>
+      <c r="E854" t="n">
+        <v>223.1066741943359</v>
+      </c>
+      <c r="F854" t="n">
+        <v>207.6699981689453</v>
+      </c>
+      <c r="G854" t="n">
+        <v>207.9499969482422</v>
+      </c>
+      <c r="H854" t="n">
+        <v>92139300</v>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>111293</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="C855" t="n">
+        <v>235.9100036621094</v>
+      </c>
+      <c r="D855" t="n">
+        <v>235.9100036621094</v>
+      </c>
+      <c r="E855" t="n">
+        <v>239.5566711425781</v>
+      </c>
+      <c r="F855" t="n">
+        <v>217.8866729736328</v>
+      </c>
+      <c r="G855" t="n">
+        <v>220.4733276367188</v>
+      </c>
+      <c r="H855" t="n">
+        <v>106003200</v>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>111294</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C856" t="n">
+        <v>253.2100067138672</v>
+      </c>
+      <c r="D856" t="n">
+        <v>253.2100067138672</v>
+      </c>
+      <c r="E856" t="n">
+        <v>253.2666625976562</v>
+      </c>
+      <c r="F856" t="n">
+        <v>240.1766662597656</v>
+      </c>
+      <c r="G856" t="n">
+        <v>241.0833282470703</v>
+      </c>
+      <c r="H856" t="n">
+        <v>89295000</v>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>111295</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C857" t="n">
+        <v>252.7533264160156</v>
+      </c>
+      <c r="D857" t="n">
+        <v>252.7533264160156</v>
+      </c>
+      <c r="E857" t="n">
+        <v>259.6000061035156</v>
+      </c>
+      <c r="F857" t="n">
+        <v>244.7433319091797</v>
+      </c>
+      <c r="G857" t="n">
+        <v>257.9466552734375</v>
+      </c>
+      <c r="H857" t="n">
+        <v>101914500</v>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>111296</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C858" t="n">
+        <v>246.7899932861328</v>
+      </c>
+      <c r="D858" t="n">
+        <v>246.7899932861328</v>
+      </c>
+      <c r="E858" t="n">
+        <v>257.32666015625</v>
+      </c>
+      <c r="F858" t="n">
+        <v>243.6399993896484</v>
+      </c>
+      <c r="G858" t="n">
+        <v>251.7200012207031</v>
+      </c>
+      <c r="H858" t="n">
+        <v>77247900</v>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>111297</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="C859" t="n">
+        <v>258.3333435058594</v>
+      </c>
+      <c r="D859" t="n">
+        <v>258.3333435058594</v>
+      </c>
+      <c r="E859" t="n">
+        <v>264.2099914550781</v>
+      </c>
+      <c r="F859" t="n">
+        <v>242.0666656494141</v>
+      </c>
+      <c r="G859" t="n">
+        <v>244.1566619873047</v>
+      </c>
+      <c r="H859" t="n">
+        <v>93473100</v>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>111298</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="C860" t="n">
+        <v>234.5166625976562</v>
+      </c>
+      <c r="D860" t="n">
+        <v>234.5166625976562</v>
+      </c>
+      <c r="E860" t="n">
+        <v>247.7966613769531</v>
+      </c>
+      <c r="F860" t="n">
+        <v>233.4166717529297</v>
+      </c>
+      <c r="G860" t="n">
+        <v>243.2266693115234</v>
+      </c>
+      <c r="H860" t="n">
+        <v>112393800</v>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>111299</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C861" t="n">
+        <v>238.2799987792969</v>
+      </c>
+      <c r="D861" t="n">
+        <v>238.2799987792969</v>
+      </c>
+      <c r="E861" t="n">
+        <v>244.8666687011719</v>
+      </c>
+      <c r="F861" t="n">
+        <v>234.3500061035156</v>
+      </c>
+      <c r="G861" t="n">
+        <v>244.3533325195312</v>
+      </c>
+      <c r="H861" t="n">
+        <v>84204600</v>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>111300</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="C862" t="n">
+        <v>238.8866729736328</v>
+      </c>
+      <c r="D862" t="n">
+        <v>238.8866729736328</v>
+      </c>
+      <c r="E862" t="n">
+        <v>239.9966735839844</v>
+      </c>
+      <c r="F862" t="n">
+        <v>230.0933380126953</v>
+      </c>
+      <c r="G862" t="n">
+        <v>234</v>
+      </c>
+      <c r="H862" t="n">
+        <v>72808500</v>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>111301</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C863" t="n">
+        <v>241.8666687011719</v>
+      </c>
+      <c r="D863" t="n">
+        <v>241.8666687011719</v>
+      </c>
+      <c r="E863" t="n">
+        <v>249.9633331298828</v>
+      </c>
+      <c r="F863" t="n">
+        <v>239.1766662597656</v>
+      </c>
+      <c r="G863" t="n">
+        <v>240.086669921875</v>
+      </c>
+      <c r="H863" t="n">
+        <v>76210500</v>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>111302</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="C864" t="n">
+        <v>239.7066650390625</v>
+      </c>
+      <c r="D864" t="n">
+        <v>239.7066650390625</v>
+      </c>
+      <c r="E864" t="n">
+        <v>255.5466613769531</v>
+      </c>
+      <c r="F864" t="n">
+        <v>239.32666015625</v>
+      </c>
+      <c r="G864" t="n">
+        <v>249.3399963378906</v>
+      </c>
+      <c r="H864" t="n">
+        <v>96491400</v>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>111303</v>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="C865" t="n">
+        <v>232.2299957275391</v>
+      </c>
+      <c r="D865" t="n">
+        <v>232.2299957275391</v>
+      </c>
+      <c r="E865" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="F865" t="n">
+        <v>227.913330078125</v>
+      </c>
+      <c r="G865" t="n">
+        <v>235.1566619873047</v>
+      </c>
+      <c r="H865" t="n">
+        <v>97536600</v>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>111304</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C866" t="n">
+        <v>215.7366638183594</v>
+      </c>
+      <c r="D866" t="n">
+        <v>215.7366638183594</v>
+      </c>
+      <c r="E866" t="n">
+        <v>226.6333312988281</v>
+      </c>
+      <c r="F866" t="n">
+        <v>214.6833343505859</v>
+      </c>
+      <c r="G866" t="n">
+        <v>223.1666717529297</v>
+      </c>
+      <c r="H866" t="n">
+        <v>102767400</v>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>111305</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="C867" t="n">
+        <v>220.8899993896484</v>
+      </c>
+      <c r="D867" t="n">
+        <v>220.8899993896484</v>
+      </c>
+      <c r="E867" t="n">
+        <v>226.3300018310547</v>
+      </c>
+      <c r="F867" t="n">
+        <v>211.7366638183594</v>
+      </c>
+      <c r="G867" t="n">
+        <v>218.2866668701172</v>
+      </c>
+      <c r="H867" t="n">
+        <v>97988700</v>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>111306</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C868" t="n">
+        <v>233</v>
+      </c>
+      <c r="D868" t="n">
+        <v>233</v>
+      </c>
+      <c r="E868" t="n">
+        <v>235.663330078125</v>
+      </c>
+      <c r="F868" t="n">
+        <v>218.1499938964844</v>
+      </c>
+      <c r="G868" t="n">
+        <v>220.9166717529297</v>
+      </c>
+      <c r="H868" t="n">
+        <v>119131800</v>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>111307</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C869" t="n">
+        <v>213.1000061035156</v>
+      </c>
+      <c r="D869" t="n">
+        <v>213.1000061035156</v>
+      </c>
+      <c r="E869" t="n">
+        <v>225.1666717529297</v>
+      </c>
+      <c r="F869" t="n">
+        <v>208.6933288574219</v>
+      </c>
+      <c r="G869" t="n">
+        <v>222.7366638183594</v>
+      </c>
+      <c r="H869" t="n">
+        <v>107390700</v>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>111308</v>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="C870" t="n">
+        <v>216.7599945068359</v>
+      </c>
+      <c r="D870" t="n">
+        <v>216.7599945068359</v>
+      </c>
+      <c r="E870" t="n">
+        <v>220.9700012207031</v>
+      </c>
+      <c r="F870" t="n">
+        <v>213.1966705322266</v>
+      </c>
+      <c r="G870" t="n">
+        <v>213.4333343505859</v>
+      </c>
+      <c r="H870" t="n">
+        <v>92641800</v>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>111309</v>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="C871" t="n">
+        <v>237.0366668701172</v>
+      </c>
+      <c r="D871" t="n">
+        <v>237.0366668701172</v>
+      </c>
+      <c r="E871" t="n">
+        <v>243.57666015625</v>
+      </c>
+      <c r="F871" t="n">
+        <v>224.3333282470703</v>
+      </c>
+      <c r="G871" t="n">
+        <v>224.6033325195312</v>
+      </c>
+      <c r="H871" t="n">
+        <v>122793000</v>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>111310</v>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="C872" t="n">
+        <v>236.086669921875</v>
+      </c>
+      <c r="D872" t="n">
+        <v>236.086669921875</v>
+      </c>
+      <c r="E872" t="n">
+        <v>246.8333282470703</v>
+      </c>
+      <c r="F872" t="n">
+        <v>233.82666015625</v>
+      </c>
+      <c r="G872" t="n">
+        <v>234.5033264160156</v>
+      </c>
+      <c r="H872" t="n">
+        <v>101107500</v>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>111311</v>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="C873" t="n">
+        <v>235.0700073242188</v>
+      </c>
+      <c r="D873" t="n">
+        <v>235.0700073242188</v>
+      </c>
+      <c r="E873" t="n">
+        <v>239.3166656494141</v>
+      </c>
+      <c r="F873" t="n">
+        <v>228.6366729736328</v>
+      </c>
+      <c r="G873" t="n">
+        <v>237.9066619873047</v>
+      </c>
+      <c r="H873" t="n">
+        <v>104202600</v>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>111312</v>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="C874" t="n">
+        <v>245.7066650390625</v>
+      </c>
+      <c r="D874" t="n">
+        <v>245.7066650390625</v>
+      </c>
+      <c r="E874" t="n">
+        <v>246.0666656494141</v>
+      </c>
+      <c r="F874" t="n">
+        <v>236.086669921875</v>
+      </c>
+      <c r="G874" t="n">
+        <v>237.4700012207031</v>
+      </c>
+      <c r="H874" t="n">
+        <v>95770800</v>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>111313</v>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C875" t="n">
+        <v>244.9199981689453</v>
+      </c>
+      <c r="D875" t="n">
+        <v>244.9199981689453</v>
+      </c>
+      <c r="E875" t="n">
+        <v>252.0700073242188</v>
+      </c>
+      <c r="F875" t="n">
+        <v>242.5666656494141</v>
+      </c>
+      <c r="G875" t="n">
+        <v>249.3666687011719</v>
+      </c>
+      <c r="H875" t="n">
+        <v>89178300</v>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>111314</v>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C876" t="n">
+        <v>232.663330078125</v>
+      </c>
+      <c r="D876" t="n">
+        <v>232.663330078125</v>
+      </c>
+      <c r="E876" t="n">
+        <v>249.9700012207031</v>
+      </c>
+      <c r="F876" t="n">
+        <v>232.3433380126953</v>
+      </c>
+      <c r="G876" t="n">
+        <v>244.4833374023438</v>
+      </c>
+      <c r="H876" t="n">
+        <v>90391200</v>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>111315</v>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="C877" t="n">
+        <v>228.4900054931641</v>
+      </c>
+      <c r="D877" t="n">
+        <v>228.4900054931641</v>
+      </c>
+      <c r="E877" t="n">
+        <v>231.17333984375</v>
+      </c>
+      <c r="F877" t="n">
+        <v>222.2733306884766</v>
+      </c>
+      <c r="G877" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="H877" t="n">
+        <v>82897200</v>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>111316</v>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C878" t="n">
+        <v>224.4733276367188</v>
+      </c>
+      <c r="D878" t="n">
+        <v>224.4733276367188</v>
+      </c>
+      <c r="E878" t="n">
+        <v>229.4566650390625</v>
+      </c>
+      <c r="F878" t="n">
+        <v>218.8633270263672</v>
+      </c>
+      <c r="G878" t="n">
+        <v>224.5099945068359</v>
+      </c>
+      <c r="H878" t="n">
+        <v>94600500</v>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>111317</v>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C879" t="n">
+        <v>227.2633361816406</v>
+      </c>
+      <c r="D879" t="n">
+        <v>227.2633361816406</v>
+      </c>
+      <c r="E879" t="n">
+        <v>230.2299957275391</v>
+      </c>
+      <c r="F879" t="n">
+        <v>222.1199951171875</v>
+      </c>
+      <c r="G879" t="n">
+        <v>227</v>
+      </c>
+      <c r="H879" t="n">
+        <v>74460300</v>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>111318</v>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="C880" t="n">
+        <v>233.0666656494141</v>
+      </c>
+      <c r="D880" t="n">
+        <v>233.0666656494141</v>
+      </c>
+      <c r="E880" t="n">
+        <v>233.1466674804688</v>
+      </c>
+      <c r="F880" t="n">
+        <v>216.1666717529297</v>
+      </c>
+      <c r="G880" t="n">
+        <v>223</v>
+      </c>
+      <c r="H880" t="n">
+        <v>84581100</v>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>111319</v>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="C881" t="n">
+        <v>231.7333374023438</v>
+      </c>
+      <c r="D881" t="n">
+        <v>231.7333374023438</v>
+      </c>
+      <c r="E881" t="n">
+        <v>234.5633392333984</v>
+      </c>
+      <c r="F881" t="n">
+        <v>227.1866607666016</v>
+      </c>
+      <c r="G881" t="n">
+        <v>230.7799987792969</v>
+      </c>
+      <c r="H881" t="n">
+        <v>71853600</v>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>111320</v>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="C882" t="n">
+        <v>244.5433349609375</v>
+      </c>
+      <c r="D882" t="n">
+        <v>244.5433349609375</v>
+      </c>
+      <c r="E882" t="n">
+        <v>245.3633270263672</v>
+      </c>
+      <c r="F882" t="n">
+        <v>232.2100067138672</v>
+      </c>
+      <c r="G882" t="n">
+        <v>233.9199981689453</v>
+      </c>
+      <c r="H882" t="n">
+        <v>81930600</v>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>111321</v>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C883" t="n">
+        <v>250.7633361816406</v>
+      </c>
+      <c r="D883" t="n">
+        <v>250.7633361816406</v>
+      </c>
+      <c r="E883" t="n">
+        <v>254.9799957275391</v>
+      </c>
+      <c r="F883" t="n">
+        <v>241.1600036621094</v>
+      </c>
+      <c r="G883" t="n">
+        <v>242.3333282470703</v>
+      </c>
+      <c r="H883" t="n">
+        <v>101854200</v>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>111322</v>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C884" t="n">
+        <v>234.3433380126953</v>
+      </c>
+      <c r="D884" t="n">
+        <v>234.3433380126953</v>
+      </c>
+      <c r="E884" t="n">
+        <v>253.0633392333984</v>
+      </c>
+      <c r="F884" t="n">
+        <v>233.6266632080078</v>
+      </c>
+      <c r="G884" t="n">
+        <v>252.1033325195312</v>
+      </c>
+      <c r="H884" t="n">
+        <v>99241200</v>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>111323</v>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C885" t="n">
+        <v>233.0700073242188</v>
+      </c>
+      <c r="D885" t="n">
+        <v>233.0700073242188</v>
+      </c>
+      <c r="E885" t="n">
+        <v>239.7733306884766</v>
+      </c>
+      <c r="F885" t="n">
+        <v>228.3699951171875</v>
+      </c>
+      <c r="G885" t="n">
+        <v>236.8466644287109</v>
+      </c>
+      <c r="H885" t="n">
+        <v>87930900</v>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>111324</v>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="C886" t="n">
+        <v>237.0399932861328</v>
+      </c>
+      <c r="D886" t="n">
+        <v>237.0399932861328</v>
+      </c>
+      <c r="E886" t="n">
+        <v>242.0599975585938</v>
+      </c>
+      <c r="F886" t="n">
+        <v>225.0333404541016</v>
+      </c>
+      <c r="G886" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="H886" t="n">
+        <v>97954500</v>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>111325</v>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C887" t="n">
+        <v>238.3133392333984</v>
+      </c>
+      <c r="D887" t="n">
+        <v>238.3133392333984</v>
+      </c>
+      <c r="E887" t="n">
+        <v>238.6533355712891</v>
+      </c>
+      <c r="F887" t="n">
+        <v>229.3333282470703</v>
+      </c>
+      <c r="G887" t="n">
+        <v>234.8966674804688</v>
+      </c>
+      <c r="H887" t="n">
+        <v>78557400</v>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>111326</v>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="C888" t="n">
+        <v>240.0666656494141</v>
+      </c>
+      <c r="D888" t="n">
+        <v>240.0666656494141</v>
+      </c>
+      <c r="E888" t="n">
+        <v>243.6233367919922</v>
+      </c>
+      <c r="F888" t="n">
+        <v>236.8899993896484</v>
+      </c>
+      <c r="G888" t="n">
+        <v>240</v>
+      </c>
+      <c r="H888" t="n">
+        <v>69683100</v>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>111327</v>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C889" t="n">
+        <v>240.5466613769531</v>
+      </c>
+      <c r="D889" t="n">
+        <v>240.5466613769531</v>
+      </c>
+      <c r="E889" t="n">
+        <v>250.5166625976562</v>
+      </c>
+      <c r="F889" t="n">
+        <v>239.6033325195312</v>
+      </c>
+      <c r="G889" t="n">
+        <v>244.9366607666016</v>
+      </c>
+      <c r="H889" t="n">
+        <v>82537500</v>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>111328</v>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="C890" t="n">
+        <v>245.5299987792969</v>
+      </c>
+      <c r="D890" t="n">
+        <v>245.5299987792969</v>
+      </c>
+      <c r="E890" t="n">
+        <v>247.1399993896484</v>
+      </c>
+      <c r="F890" t="n">
+        <v>236.9766693115234</v>
+      </c>
+      <c r="G890" t="n">
+        <v>245</v>
+      </c>
+      <c r="H890" t="n">
+        <v>80890200</v>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>111329</v>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="C891" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="D891" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="E891" t="n">
+        <v>250.663330078125</v>
+      </c>
+      <c r="F891" t="n">
+        <v>243.4833374023438</v>
+      </c>
+      <c r="G891" t="n">
+        <v>246.7833404541016</v>
+      </c>
+      <c r="H891" t="n">
+        <v>88864200</v>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>111330</v>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="C892" t="n">
+        <v>271.7066650390625</v>
+      </c>
+      <c r="D892" t="n">
+        <v>271.7066650390625</v>
+      </c>
+      <c r="E892" t="n">
+        <v>273.2666625976562</v>
+      </c>
+      <c r="F892" t="n">
+        <v>254.8666687011719</v>
+      </c>
+      <c r="G892" t="n">
+        <v>255.1066741943359</v>
+      </c>
+      <c r="H892" t="n">
+        <v>142032300</v>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>111331</v>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="C893" t="n">
+        <v>272.2433471679688</v>
+      </c>
+      <c r="D893" t="n">
+        <v>272.2433471679688</v>
+      </c>
+      <c r="E893" t="n">
+        <v>280.7866821289062</v>
+      </c>
+      <c r="F893" t="n">
+        <v>270.7133178710938</v>
+      </c>
+      <c r="G893" t="n">
+        <v>276.2200012207031</v>
+      </c>
+      <c r="H893" t="n">
+        <v>103472700</v>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>111332</v>
+      </c>
+      <c r="B894" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C894" t="n">
+        <v>268.4333190917969</v>
+      </c>
+      <c r="D894" t="n">
+        <v>268.4333190917969</v>
+      </c>
+      <c r="E894" t="n">
+        <v>274.1466674804688</v>
+      </c>
+      <c r="F894" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="G894" t="n">
+        <v>272.2166748046875</v>
+      </c>
+      <c r="H894" t="n">
+        <v>64073400</v>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>111333</v>
+      </c>
+      <c r="B895" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="C895" t="n">
+        <v>258.8599853515625</v>
+      </c>
+      <c r="D895" t="n">
+        <v>258.8599853515625</v>
+      </c>
+      <c r="E895" t="n">
+        <v>267.3099975585938</v>
+      </c>
+      <c r="F895" t="n">
+        <v>256.2633361816406</v>
+      </c>
+      <c r="G895" t="n">
+        <v>266.5133361816406</v>
+      </c>
+      <c r="H895" t="n">
+        <v>66820800</v>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>111334</v>
+      </c>
+      <c r="B896" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="C896" t="n">
+        <v>274.8200073242188</v>
+      </c>
+      <c r="D896" t="n">
+        <v>274.8200073242188</v>
+      </c>
+      <c r="E896" t="n">
+        <v>275.9266662597656</v>
+      </c>
+      <c r="F896" t="n">
+        <v>261.7900085449219</v>
+      </c>
+      <c r="G896" t="n">
+        <v>263.8099975585938</v>
+      </c>
+      <c r="H896" t="n">
+        <v>88110000</v>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>111335</v>
+      </c>
+      <c r="B897" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="C897" t="n">
+        <v>280.8999938964844</v>
+      </c>
+      <c r="D897" t="n">
+        <v>280.8999938964844</v>
+      </c>
+      <c r="E897" t="n">
+        <v>283.2999877929688</v>
+      </c>
+      <c r="F897" t="n">
+        <v>272.7999877929688</v>
+      </c>
+      <c r="G897" t="n">
+        <v>280.0666809082031</v>
+      </c>
+      <c r="H897" t="n">
+        <v>84723000</v>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>111336</v>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C898" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="D898" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="E898" t="n">
+        <v>298.3200073242188</v>
+      </c>
+      <c r="F898" t="n">
+        <v>279.1000061035156</v>
+      </c>
+      <c r="G898" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="H898" t="n">
+        <v>95313000</v>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>111337</v>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C899" t="n">
+        <v>297.2766723632812</v>
+      </c>
+      <c r="D899" t="n">
+        <v>297.2766723632812</v>
+      </c>
+      <c r="E899" t="n">
+        <v>311.8766784667969</v>
+      </c>
+      <c r="F899" t="n">
+        <v>295</v>
+      </c>
+      <c r="G899" t="n">
+        <v>301.2766723632812</v>
+      </c>
+      <c r="H899" t="n">
+        <v>117042900</v>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>111338</v>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C900" t="n">
+        <v>300.586669921875</v>
+      </c>
+      <c r="D900" t="n">
+        <v>300.586669921875</v>
+      </c>
+      <c r="E900" t="n">
+        <v>307.8333435058594</v>
+      </c>
+      <c r="F900" t="n">
+        <v>292.6666564941406</v>
+      </c>
+      <c r="G900" t="n">
+        <v>294.0033264160156</v>
+      </c>
+      <c r="H900" t="n">
+        <v>95577600</v>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>111339</v>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="C901" t="n">
+        <v>307.3966674804688</v>
+      </c>
+      <c r="D901" t="n">
+        <v>307.3966674804688</v>
+      </c>
+      <c r="E901" t="n">
+        <v>309.5499877929688</v>
+      </c>
+      <c r="F901" t="n">
+        <v>301.1499938964844</v>
+      </c>
+      <c r="G901" t="n">
+        <v>305</v>
+      </c>
+      <c r="H901" t="n">
+        <v>80091000</v>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>111340</v>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="C902" t="n">
+        <v>308.6333312988281</v>
+      </c>
+      <c r="D902" t="n">
+        <v>308.6333312988281</v>
+      </c>
+      <c r="E902" t="n">
+        <v>313.6066589355469</v>
+      </c>
+      <c r="F902" t="n">
+        <v>305</v>
+      </c>
+      <c r="G902" t="n">
+        <v>311</v>
+      </c>
+      <c r="H902" t="n">
+        <v>72256200</v>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>111341</v>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="C903" t="n">
+        <v>288.1700134277344</v>
+      </c>
+      <c r="D903" t="n">
+        <v>288.1700134277344</v>
+      </c>
+      <c r="E903" t="n">
+        <v>304.6066589355469</v>
+      </c>
+      <c r="F903" t="n">
+        <v>285.5433349609375</v>
+      </c>
+      <c r="G903" t="n">
+        <v>302.6700134277344</v>
+      </c>
+      <c r="H903" t="n">
+        <v>113172900</v>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>111342</v>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C904" t="n">
+        <v>290.42333984375</v>
+      </c>
+      <c r="D904" t="n">
+        <v>290.42333984375</v>
+      </c>
+      <c r="E904" t="n">
+        <v>305.2000122070312</v>
+      </c>
+      <c r="F904" t="n">
+        <v>289.086669921875</v>
+      </c>
+      <c r="G904" t="n">
+        <v>295</v>
+      </c>
+      <c r="H904" t="n">
+        <v>98994000</v>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>111343</v>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="C905" t="n">
+        <v>283.3333435058594</v>
+      </c>
+      <c r="D905" t="n">
+        <v>283.3333435058594</v>
+      </c>
+      <c r="E905" t="n">
+        <v>292.3966674804688</v>
+      </c>
+      <c r="F905" t="n">
+        <v>279.3533325195312</v>
+      </c>
+      <c r="G905" t="n">
+        <v>290.2933349609375</v>
+      </c>
+      <c r="H905" t="n">
+        <v>86244600</v>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>111344</v>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="C906" t="n">
+        <v>294.3566589355469</v>
+      </c>
+      <c r="D906" t="n">
+        <v>294.3566589355469</v>
+      </c>
+      <c r="E906" t="n">
+        <v>297.510009765625</v>
+      </c>
+      <c r="F906" t="n">
+        <v>283.3699951171875</v>
+      </c>
+      <c r="G906" t="n">
+        <v>297.0666809082031</v>
+      </c>
+      <c r="H906" t="n">
+        <v>94918800</v>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>111345</v>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="C907" t="n">
+        <v>286.6300048828125</v>
+      </c>
+      <c r="D907" t="n">
+        <v>286.6300048828125</v>
+      </c>
+      <c r="E907" t="n">
+        <v>298.2366638183594</v>
+      </c>
+      <c r="F907" t="n">
+        <v>285.8333435058594</v>
+      </c>
+      <c r="G907" t="n">
+        <v>296.5133361816406</v>
+      </c>
+      <c r="H907" t="n">
+        <v>70155000</v>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>111346</v>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="C908" t="n">
+        <v>300.0299987792969</v>
+      </c>
+      <c r="D908" t="n">
+        <v>300.0299987792969</v>
+      </c>
+      <c r="E908" t="n">
+        <v>300.1600036621094</v>
+      </c>
+      <c r="F908" t="n">
+        <v>285.0333251953125</v>
+      </c>
+      <c r="G908" t="n">
+        <v>289.4166564941406</v>
+      </c>
+      <c r="H908" t="n">
+        <v>79657200</v>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>111347</v>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="C909" t="n">
+        <v>309.3200073242188</v>
+      </c>
+      <c r="D909" t="n">
+        <v>309.3200073242188</v>
+      </c>
+      <c r="E909" t="n">
+        <v>313.1333312988281</v>
+      </c>
+      <c r="F909" t="n">
+        <v>301.2300109863281</v>
+      </c>
+      <c r="G909" t="n">
+        <v>301.7866821289062</v>
+      </c>
+      <c r="H909" t="n">
+        <v>89359200</v>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>111348</v>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="C910" t="n">
+        <v>306.5633239746094</v>
+      </c>
+      <c r="D910" t="n">
+        <v>306.5633239746094</v>
+      </c>
+      <c r="E910" t="n">
+        <v>314.6666564941406</v>
+      </c>
+      <c r="F910" t="n">
+        <v>302.8833312988281</v>
+      </c>
+      <c r="G910" t="n">
+        <v>311.6666564941406</v>
+      </c>
+      <c r="H910" t="n">
+        <v>88136400</v>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>111349</v>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="C911" t="n">
+        <v>303.9966735839844</v>
+      </c>
+      <c r="D911" t="n">
+        <v>303.9966735839844</v>
+      </c>
+      <c r="E911" t="n">
+        <v>309.6566772460938</v>
+      </c>
+      <c r="F911" t="n">
+        <v>300.0333251953125</v>
+      </c>
+      <c r="G911" t="n">
+        <v>303.3966674804688</v>
+      </c>
+      <c r="H911" t="n">
+        <v>68766000</v>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>111350</v>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="C912" t="n">
+        <v>302.8699951171875</v>
+      </c>
+      <c r="D912" t="n">
+        <v>302.8699951171875</v>
+      </c>
+      <c r="E912" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="F912" t="n">
+        <v>301.8533325195312</v>
+      </c>
+      <c r="G912" t="n">
+        <v>306</v>
+      </c>
+      <c r="H912" t="n">
+        <v>47500500</v>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>111351</v>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C913" t="n">
+        <v>296.6666564941406</v>
+      </c>
+      <c r="D913" t="n">
+        <v>296.6666564941406</v>
+      </c>
+      <c r="E913" t="n">
+        <v>300.3599853515625</v>
+      </c>
+      <c r="F913" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="G913" t="n">
+        <v>299</v>
+      </c>
+      <c r="H913" t="n">
+        <v>61395300</v>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>111352</v>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="C914" t="n">
+        <v>289.913330078125</v>
+      </c>
+      <c r="D914" t="n">
+        <v>289.913330078125</v>
+      </c>
+      <c r="E914" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="F914" t="n">
+        <v>286.2966613769531</v>
+      </c>
+      <c r="G914" t="n">
+        <v>291.913330078125</v>
+      </c>
+      <c r="H914" t="n">
+        <v>55843200</v>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>111353</v>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C915" t="n">
+        <v>296.4533386230469</v>
+      </c>
+      <c r="D915" t="n">
+        <v>296.4533386230469</v>
+      </c>
+      <c r="E915" t="n">
+        <v>298.82666015625</v>
+      </c>
+      <c r="F915" t="n">
+        <v>287.92333984375</v>
+      </c>
+      <c r="G915" t="n">
+        <v>291.4533386230469</v>
+      </c>
+      <c r="H915" t="n">
+        <v>63984900</v>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>111354</v>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C916" t="n">
+        <v>297.0966796875</v>
+      </c>
+      <c r="D916" t="n">
+        <v>297.0966796875</v>
+      </c>
+      <c r="E916" t="n">
+        <v>303.6466674804688</v>
+      </c>
+      <c r="F916" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="G916" t="n">
+        <v>297.5633239746094</v>
+      </c>
+      <c r="H916" t="n">
+        <v>57259800</v>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>111355</v>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C917" t="n">
+        <v>296.0700073242188</v>
+      </c>
+      <c r="D917" t="n">
+        <v>296.0700073242188</v>
+      </c>
+      <c r="E917" t="n">
+        <v>302.9599914550781</v>
+      </c>
+      <c r="F917" t="n">
+        <v>291.6000061035156</v>
+      </c>
+      <c r="G917" t="n">
+        <v>302.3599853515625</v>
+      </c>
+      <c r="H917" t="n">
+        <v>53230000</v>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>111356</v>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C918" t="n">
+        <v>288.0899963378906</v>
+      </c>
+      <c r="D918" t="n">
+        <v>288.0899963378906</v>
+      </c>
+      <c r="E918" t="n">
+        <v>302</v>
+      </c>
+      <c r="F918" t="n">
+        <v>287.4700012207031</v>
+      </c>
+      <c r="G918" t="n">
+        <v>297.4299926757812</v>
+      </c>
+      <c r="H918" t="n">
+        <v>57163900</v>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>111357</v>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="C919" t="n">
+        <v>284.8200073242188</v>
+      </c>
+      <c r="D919" t="n">
+        <v>284.8200073242188</v>
+      </c>
+      <c r="E919" t="n">
+        <v>287.739990234375</v>
+      </c>
+      <c r="F919" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="G919" t="n">
+        <v>282.8299865722656</v>
+      </c>
+      <c r="H919" t="n">
+        <v>41864700</v>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>111358</v>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="C920" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="D920" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="E920" t="n">
+        <v>288.4800109863281</v>
+      </c>
+      <c r="F920" t="n">
+        <v>272.6499938964844</v>
+      </c>
+      <c r="G920" t="n">
+        <v>287.8699951171875</v>
+      </c>
+      <c r="H920" t="n">
+        <v>50541800</v>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>111359</v>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C921" t="n">
+        <v>275.6099853515625</v>
+      </c>
+      <c r="D921" t="n">
+        <v>275.6099853515625</v>
+      </c>
+      <c r="E921" t="n">
+        <v>281.25</v>
+      </c>
+      <c r="F921" t="n">
+        <v>271.8099975585938</v>
+      </c>
+      <c r="G921" t="n">
+        <v>280.6199951171875</v>
+      </c>
+      <c r="H921" t="n">
+        <v>52107300</v>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>111360</v>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C922" t="n">
+        <v>277.1600036621094</v>
+      </c>
+      <c r="D922" t="n">
+        <v>277.1600036621094</v>
+      </c>
+      <c r="E922" t="n">
+        <v>277.5799865722656</v>
+      </c>
+      <c r="F922" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="G922" t="n">
+        <v>272.5799865722656</v>
+      </c>
+      <c r="H922" t="n">
+        <v>54287000</v>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>111361</v>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C923" t="n">
+        <v>270.2099914550781</v>
+      </c>
+      <c r="D923" t="n">
+        <v>270.2099914550781</v>
+      </c>
+      <c r="E923" t="n">
+        <v>282.3500061035156</v>
+      </c>
+      <c r="F923" t="n">
+        <v>269.0799865722656</v>
+      </c>
+      <c r="G923" t="n">
+        <v>281.0700073242188</v>
+      </c>
+      <c r="H923" t="n">
+        <v>50890100</v>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>111362</v>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="C924" t="n">
+        <v>274.4200134277344</v>
+      </c>
+      <c r="D924" t="n">
+        <v>274.4200134277344</v>
+      </c>
+      <c r="E924" t="n">
+        <v>275.989990234375</v>
+      </c>
+      <c r="F924" t="n">
+        <v>265.739990234375</v>
+      </c>
+      <c r="G924" t="n">
+        <v>272.6799926757812</v>
+      </c>
+      <c r="H924" t="n">
+        <v>55860000</v>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>111363</v>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="C925" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="D925" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="E925" t="n">
+        <v>283.8399963378906</v>
+      </c>
+      <c r="F925" t="n">
+        <v>272.2699890136719</v>
+      </c>
+      <c r="G925" t="n">
+        <v>273.1000061035156</v>
+      </c>
+      <c r="H925" t="n">
+        <v>50028900</v>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>111364</v>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="C926" t="n">
+        <v>289.260009765625</v>
+      </c>
+      <c r="D926" t="n">
+        <v>289.260009765625</v>
+      </c>
+      <c r="E926" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F926" t="n">
+        <v>279.760009765625</v>
+      </c>
+      <c r="G926" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="H926" t="n">
+        <v>53713100</v>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>111365</v>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="C927" t="n">
+        <v>299.6799926757812</v>
+      </c>
+      <c r="D927" t="n">
+        <v>299.6799926757812</v>
+      </c>
+      <c r="E927" t="n">
+        <v>299.8500061035156</v>
+      </c>
+      <c r="F927" t="n">
+        <v>291.25</v>
+      </c>
+      <c r="G927" t="n">
+        <v>291.6700134277344</v>
+      </c>
+      <c r="H927" t="n">
+        <v>54338100</v>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>111366</v>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="C928" t="n">
+        <v>304.4200134277344</v>
+      </c>
+      <c r="D928" t="n">
+        <v>304.4200134277344</v>
+      </c>
+      <c r="E928" t="n">
+        <v>305.489990234375</v>
+      </c>
+      <c r="F928" t="n">
+        <v>300.3999938964844</v>
+      </c>
+      <c r="G928" t="n">
+        <v>300.7200012207031</v>
+      </c>
+      <c r="H928" t="n">
+        <v>48674600</v>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>111367</v>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="C929" t="n">
+        <v>292.1300048828125</v>
+      </c>
+      <c r="D929" t="n">
+        <v>292.1300048828125</v>
+      </c>
+      <c r="E929" t="n">
+        <v>297.3999938964844</v>
+      </c>
+      <c r="F929" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G929" t="n">
+        <v>292.8999938964844</v>
+      </c>
+      <c r="H929" t="n">
+        <v>68229600</v>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>111368</v>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="C930" t="n">
+        <v>302.6099853515625</v>
+      </c>
+      <c r="D930" t="n">
+        <v>302.6099853515625</v>
+      </c>
+      <c r="E930" t="n">
+        <v>306</v>
+      </c>
+      <c r="F930" t="n">
+        <v>291.6400146484375</v>
+      </c>
+      <c r="G930" t="n">
+        <v>292.239990234375</v>
+      </c>
+      <c r="H930" t="n">
+        <v>72628700</v>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>111369</v>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C931" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="D931" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="E931" t="n">
+        <v>309.1199951171875</v>
+      </c>
+      <c r="F931" t="n">
+        <v>300.7200012207031</v>
+      </c>
+      <c r="G931" t="n">
+        <v>301.8299865722656</v>
+      </c>
+      <c r="H931" t="n">
+        <v>64795500</v>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>111370</v>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="C932" t="n">
+        <v>303.3500061035156</v>
+      </c>
+      <c r="D932" t="n">
+        <v>303.3500061035156</v>
+      </c>
+      <c r="E932" t="n">
+        <v>303.7099914550781</v>
+      </c>
+      <c r="F932" t="n">
+        <v>295.6000061035156</v>
+      </c>
+      <c r="G932" t="n">
+        <v>299.6099853515625</v>
+      </c>
+      <c r="H932" t="n">
+        <v>87087800</v>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>111371</v>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="C933" t="n">
+        <v>309.0700073242188</v>
+      </c>
+      <c r="D933" t="n">
+        <v>309.0700073242188</v>
+      </c>
+      <c r="E933" t="n">
+        <v>309.8399963378906</v>
+      </c>
+      <c r="F933" t="n">
+        <v>297.7999877929688</v>
+      </c>
+      <c r="G933" t="n">
+        <v>300.0899963378906</v>
+      </c>
+      <c r="H933" t="n">
+        <v>60231200</v>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>111372</v>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="C934" t="n">
+        <v>308.7300109863281</v>
+      </c>
+      <c r="D934" t="n">
+        <v>308.7300109863281</v>
+      </c>
+      <c r="E934" t="n">
+        <v>313.3299865722656</v>
+      </c>
+      <c r="F934" t="n">
+        <v>305.5799865722656</v>
+      </c>
+      <c r="G934" t="n">
+        <v>306.9100036621094</v>
+      </c>
+      <c r="H934" t="n">
+        <v>61642800</v>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>111373</v>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C935" t="n">
+        <v>300.7999877929688</v>
+      </c>
+      <c r="D935" t="n">
+        <v>300.7999877929688</v>
+      </c>
+      <c r="E935" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F935" t="n">
+        <v>300.6300048828125</v>
+      </c>
+      <c r="G935" t="n">
+        <v>308.2900085449219</v>
+      </c>
+      <c r="H935" t="n">
+        <v>62555700</v>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>111374</v>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="C936" t="n">
+        <v>288.5899963378906</v>
+      </c>
+      <c r="D936" t="n">
+        <v>288.5899963378906</v>
+      </c>
+      <c r="E936" t="n">
+        <v>301.2900085449219</v>
+      </c>
+      <c r="F936" t="n">
+        <v>285.8200073242188</v>
+      </c>
+      <c r="G936" t="n">
+        <v>299.8599853515625</v>
+      </c>
+      <c r="H936" t="n">
+        <v>70545400</v>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>111375</v>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C937" t="n">
+        <v>275.3299865722656</v>
+      </c>
+      <c r="D937" t="n">
+        <v>275.3299865722656</v>
+      </c>
+      <c r="E937" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="F937" t="n">
+        <v>272.8200073242188</v>
+      </c>
+      <c r="G937" t="n">
+        <v>283.0899963378906</v>
+      </c>
+      <c r="H937" t="n">
+        <v>63748400</v>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>111376</v>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="C938" t="n">
+        <v>276.010009765625</v>
+      </c>
+      <c r="D938" t="n">
+        <v>276.010009765625</v>
+      </c>
+      <c r="E938" t="n">
+        <v>284.0899963378906</v>
+      </c>
+      <c r="F938" t="n">
+        <v>270.3099975585938</v>
+      </c>
+      <c r="G938" t="n">
+        <v>271.8299865722656</v>
+      </c>
+      <c r="H938" t="n">
+        <v>58076900</v>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>111377</v>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="C939" t="n">
+        <v>282.9400024414062</v>
+      </c>
+      <c r="D939" t="n">
+        <v>282.9400024414062</v>
+      </c>
+      <c r="E939" t="n">
+        <v>288.6700134277344</v>
+      </c>
+      <c r="F939" t="n">
+        <v>277.510009765625</v>
+      </c>
+      <c r="G939" t="n">
+        <v>283.8399963378906</v>
+      </c>
+      <c r="H939" t="n">
+        <v>61925200</v>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>111378</v>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C940" t="n">
+        <v>287.8099975585938</v>
+      </c>
+      <c r="D940" t="n">
+        <v>287.8099975585938</v>
+      </c>
+      <c r="E940" t="n">
+        <v>289</v>
+      </c>
+      <c r="F940" t="n">
+        <v>277.5700073242188</v>
+      </c>
+      <c r="G940" t="n">
+        <v>283.0799865722656</v>
+      </c>
+      <c r="H940" t="n">
+        <v>54664800</v>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>111379</v>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="C941" t="n">
+        <v>268.2099914550781</v>
+      </c>
+      <c r="D941" t="n">
+        <v>268.2099914550781</v>
+      </c>
+      <c r="E941" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="F941" t="n">
+        <v>265.7799987792969</v>
+      </c>
+      <c r="G941" t="n">
+        <v>282.760009765625</v>
+      </c>
+      <c r="H941" t="n">
+        <v>77620600</v>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>111380</v>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C942" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="D942" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="E942" t="n">
+        <v>275.5700073242188</v>
+      </c>
+      <c r="F942" t="n">
+        <v>262.4700012207031</v>
+      </c>
+      <c r="G942" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="H942" t="n">
+        <v>67726600</v>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>111381</v>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C943" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="D943" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="E943" t="n">
+        <v>255.1600036621094</v>
+      </c>
+      <c r="F943" t="n">
+        <v>241.0099945068359</v>
+      </c>
+      <c r="G943" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="H943" t="n">
+        <v>98363500</v>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>111382</v>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C944" t="n">
+        <v>249.4400024414062</v>
+      </c>
+      <c r="D944" t="n">
+        <v>249.4400024414062</v>
+      </c>
+      <c r="E944" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="F944" t="n">
+        <v>242.0099945068359</v>
+      </c>
+      <c r="G944" t="n">
+        <v>250.5200042724609</v>
+      </c>
+      <c r="H944" t="n">
+        <v>109578500</v>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>111383</v>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C945" t="n">
+        <v>240.8099975585938</v>
+      </c>
+      <c r="D945" t="n">
+        <v>240.8099975585938</v>
+      </c>
+      <c r="E945" t="n">
+        <v>246.6699981689453</v>
+      </c>
+      <c r="F945" t="n">
+        <v>233.2700042724609</v>
+      </c>
+      <c r="G945" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="H945" t="n">
+        <v>86982700</v>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>111384</v>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C946" t="n">
+        <v>238.1300048828125</v>
+      </c>
+      <c r="D946" t="n">
+        <v>238.1300048828125</v>
+      </c>
+      <c r="E946" t="n">
+        <v>244.5800018310547</v>
+      </c>
+      <c r="F946" t="n">
+        <v>235.3500061035156</v>
+      </c>
+      <c r="G946" t="n">
+        <v>239.4400024414062</v>
+      </c>
+      <c r="H946" t="n">
+        <v>69298400</v>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>111385</v>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C947" t="n">
+        <v>223.0700073242188</v>
+      </c>
+      <c r="D947" t="n">
+        <v>223.0700073242188</v>
+      </c>
+      <c r="E947" t="n">
+        <v>234.5700073242188</v>
+      </c>
+      <c r="F947" t="n">
+        <v>222.0200042724609</v>
+      </c>
+      <c r="G947" t="n">
+        <v>233.9400024414062</v>
+      </c>
+      <c r="H947" t="n">
+        <v>83916800</v>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>111386</v>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C948" t="n">
+        <v>222.9600067138672</v>
+      </c>
+      <c r="D948" t="n">
+        <v>222.9600067138672</v>
+      </c>
+      <c r="E948" t="n">
+        <v>226.9900054931641</v>
+      </c>
+      <c r="F948" t="n">
+        <v>218.3600006103516</v>
+      </c>
+      <c r="G948" t="n">
+        <v>223.9299926757812</v>
+      </c>
+      <c r="H948" t="n">
+        <v>67925000</v>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>111387</v>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="C949" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="D949" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="E949" t="n">
+        <v>225.75</v>
+      </c>
+      <c r="F949" t="n">
+        <v>215</v>
+      </c>
+      <c r="G949" t="n">
+        <v>220.9499969482422</v>
+      </c>
+      <c r="H949" t="n">
+        <v>77013200</v>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>111388</v>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C950" t="n">
+        <v>217.2400054931641</v>
+      </c>
+      <c r="D950" t="n">
+        <v>217.2400054931641</v>
+      </c>
+      <c r="E950" t="n">
+        <v>219.3000030517578</v>
+      </c>
+      <c r="F950" t="n">
+        <v>211.5099945068359</v>
+      </c>
+      <c r="G950" t="n">
+        <v>215.3300018310547</v>
+      </c>
+      <c r="H950" t="n">
+        <v>66860700</v>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>111389</v>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="C951" t="n">
+        <v>221.7200012207031</v>
+      </c>
+      <c r="D951" t="n">
+        <v>221.7200012207031</v>
+      </c>
+      <c r="E951" t="n">
+        <v>222.9900054931641</v>
+      </c>
+      <c r="F951" t="n">
+        <v>206.2200012207031</v>
+      </c>
+      <c r="G951" t="n">
+        <v>208.3000030517578</v>
+      </c>
+      <c r="H951" t="n">
+        <v>91483000</v>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>111390</v>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C952" t="n">
+        <v>204.9900054931641</v>
+      </c>
+      <c r="D952" t="n">
+        <v>204.9900054931641</v>
+      </c>
+      <c r="E952" t="n">
+        <v>226.2599945068359</v>
+      </c>
+      <c r="F952" t="n">
+        <v>204.1600036621094</v>
+      </c>
+      <c r="G952" t="n">
+        <v>224.0099945068359</v>
+      </c>
+      <c r="H952" t="n">
+        <v>94124500</v>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>111391</v>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C953" t="n">
+        <v>219.3500061035156</v>
+      </c>
+      <c r="D953" t="n">
+        <v>219.3500061035156</v>
+      </c>
+      <c r="E953" t="n">
+        <v>221.8600006103516</v>
+      </c>
+      <c r="F953" t="n">
+        <v>209.4499969482422</v>
+      </c>
+      <c r="G953" t="n">
+        <v>210.0399932861328</v>
+      </c>
+      <c r="H953" t="n">
+        <v>79428800</v>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>111392</v>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="C954" t="n">
+        <v>220.1900024414062</v>
+      </c>
+      <c r="D954" t="n">
+        <v>220.1900024414062</v>
+      </c>
+      <c r="E954" t="n">
+        <v>229.8200073242188</v>
+      </c>
+      <c r="F954" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="G954" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="H954" t="n">
+        <v>75891900</v>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>111393</v>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="C955" t="n">
+        <v>222.0399932861328</v>
+      </c>
+      <c r="D955" t="n">
+        <v>222.0399932861328</v>
+      </c>
+      <c r="E955" t="n">
+        <v>222.9299926757812</v>
+      </c>
+      <c r="F955" t="n">
+        <v>217.7799987792969</v>
+      </c>
+      <c r="G955" t="n">
+        <v>219.8000030517578</v>
+      </c>
+      <c r="H955" t="n">
+        <v>66571500</v>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>111394</v>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="C956" t="n">
+        <v>207.2799987792969</v>
+      </c>
+      <c r="D956" t="n">
+        <v>207.2799987792969</v>
+      </c>
+      <c r="E956" t="n">
+        <v>215.5500030517578</v>
+      </c>
+      <c r="F956" t="n">
+        <v>202</v>
+      </c>
+      <c r="G956" t="n">
+        <v>208.2799987792969</v>
+      </c>
+      <c r="H956" t="n">
+        <v>117798100</v>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>111395</v>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C957" t="n">
+        <v>214.4400024414062</v>
+      </c>
+      <c r="D957" t="n">
+        <v>214.4400024414062</v>
+      </c>
+      <c r="E957" t="n">
+        <v>214.6600036621094</v>
+      </c>
+      <c r="F957" t="n">
+        <v>203.8000030517578</v>
+      </c>
+      <c r="G957" t="n">
+        <v>206.4199981689453</v>
+      </c>
+      <c r="H957" t="n">
+        <v>75713800</v>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>111396</v>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C958" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="D958" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="E958" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="F958" t="n">
+        <v>198.5899963378906</v>
+      </c>
+      <c r="G958" t="n">
+        <v>205.8200073242188</v>
+      </c>
+      <c r="H958" t="n">
+        <v>100446800</v>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>111397</v>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="C959" t="n">
+        <v>222.4199981689453</v>
+      </c>
+      <c r="D959" t="n">
+        <v>222.4199981689453</v>
+      </c>
+      <c r="E959" t="n">
+        <v>224.3500061035156</v>
+      </c>
+      <c r="F959" t="n">
+        <v>210</v>
+      </c>
+      <c r="G959" t="n">
+        <v>210.1000061035156</v>
+      </c>
+      <c r="H959" t="n">
+        <v>96507900</v>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>111398</v>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="C960" t="n">
+        <v>224.6399993896484</v>
+      </c>
+      <c r="D960" t="n">
+        <v>224.6399993896484</v>
+      </c>
+      <c r="E960" t="n">
+        <v>230.6000061035156</v>
+      </c>
+      <c r="F960" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="G960" t="n">
+        <v>219.3999938964844</v>
+      </c>
+      <c r="H960" t="n">
+        <v>85012500</v>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>111399</v>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="C961" t="n">
+        <v>225.0899963378906</v>
+      </c>
+      <c r="D961" t="n">
+        <v>225.0899963378906</v>
+      </c>
+      <c r="E961" t="n">
+        <v>233.8099975585938</v>
+      </c>
+      <c r="F961" t="n">
+        <v>222.8500061035156</v>
+      </c>
+      <c r="G961" t="n">
+        <v>229.7700042724609</v>
+      </c>
+      <c r="H961" t="n">
+        <v>61638800</v>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>111400</v>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="C962" t="n">
+        <v>228.5200042724609</v>
+      </c>
+      <c r="D962" t="n">
+        <v>228.5200042724609</v>
+      </c>
+      <c r="E962" t="n">
+        <v>228.8600006103516</v>
+      </c>
+      <c r="F962" t="n">
+        <v>216.3500061035156</v>
+      </c>
+      <c r="G962" t="n">
+        <v>225.3999938964844</v>
+      </c>
+      <c r="H962" t="n">
+        <v>69152400</v>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>111401</v>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C963" t="n">
+        <v>227.5399932861328</v>
+      </c>
+      <c r="D963" t="n">
+        <v>227.5399932861328</v>
+      </c>
+      <c r="E963" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="F963" t="n">
+        <v>221.9400024414062</v>
+      </c>
+      <c r="G963" t="n">
+        <v>226.1900024414062</v>
+      </c>
+      <c r="H963" t="n">
+        <v>61554300</v>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>111402</v>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C964" t="n">
+        <v>227.8200073242188</v>
+      </c>
+      <c r="D964" t="n">
+        <v>227.8200073242188</v>
+      </c>
+      <c r="E964" t="n">
+        <v>237.3999938964844</v>
+      </c>
+      <c r="F964" t="n">
+        <v>227.2799987792969</v>
+      </c>
+      <c r="G964" t="n">
+        <v>234.0500030517578</v>
+      </c>
+      <c r="H964" t="n">
+        <v>62688800</v>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>111403</v>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="C965" t="n">
+        <v>214.9799957275391</v>
+      </c>
+      <c r="D965" t="n">
+        <v>214.9799957275391</v>
+      </c>
+      <c r="E965" t="n">
+        <v>227.8699951171875</v>
+      </c>
+      <c r="F965" t="n">
+        <v>214.8200073242188</v>
+      </c>
+      <c r="G965" t="n">
+        <v>226.0399932861328</v>
+      </c>
+      <c r="H965" t="n">
+        <v>63070300</v>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>111404</v>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="C966" t="n">
+        <v>215.3099975585938</v>
+      </c>
+      <c r="D966" t="n">
+        <v>215.3099975585938</v>
+      </c>
+      <c r="E966" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="F966" t="n">
+        <v>210.1399993896484</v>
+      </c>
+      <c r="G966" t="n">
+        <v>211.3600006103516</v>
+      </c>
+      <c r="H966" t="n">
+        <v>56538800</v>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>111405</v>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="C967" t="n">
+        <v>207.4700012207031</v>
+      </c>
+      <c r="D967" t="n">
+        <v>207.4700012207031</v>
+      </c>
+      <c r="E967" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="F967" t="n">
+        <v>203.0800018310547</v>
+      </c>
+      <c r="G967" t="n">
+        <v>222.6000061035156</v>
+      </c>
+      <c r="H967" t="n">
+        <v>98622200</v>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>111406</v>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C968" t="n">
+        <v>197.0800018310547</v>
+      </c>
+      <c r="D968" t="n">
+        <v>197.0800018310547</v>
+      </c>
+      <c r="E968" t="n">
+        <v>208.8999938964844</v>
+      </c>
+      <c r="F968" t="n">
+        <v>196.6600036621094</v>
+      </c>
+      <c r="G968" t="n">
+        <v>208.6499938964844</v>
+      </c>
+      <c r="H968" t="n">
+        <v>93916500</v>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>111407</v>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="C969" t="n">
+        <v>191.3000030517578</v>
+      </c>
+      <c r="D969" t="n">
+        <v>191.3000030517578</v>
+      </c>
+      <c r="E969" t="n">
+        <v>195.1999969482422</v>
+      </c>
+      <c r="F969" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="G969" t="n">
+        <v>194.0200042724609</v>
+      </c>
+      <c r="H969" t="n">
+        <v>128803400</v>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>111408</v>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="C970" t="n">
+        <v>177.5899963378906</v>
+      </c>
+      <c r="D970" t="n">
+        <v>177.5899963378906</v>
+      </c>
+      <c r="E970" t="n">
+        <v>195.8899993896484</v>
+      </c>
+      <c r="F970" t="n">
+        <v>177.1199951171875</v>
+      </c>
+      <c r="G970" t="n">
+        <v>190.7799987792969</v>
+      </c>
+      <c r="H970" t="n">
+        <v>127062700</v>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>111409</v>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="C971" t="n">
+        <v>190.7200012207031</v>
+      </c>
+      <c r="D971" t="n">
+        <v>190.7200012207031</v>
+      </c>
+      <c r="E971" t="n">
+        <v>191</v>
+      </c>
+      <c r="F971" t="n">
+        <v>180.0299987792969</v>
+      </c>
+      <c r="G971" t="n">
+        <v>189.8999938964844</v>
+      </c>
+      <c r="H971" t="n">
+        <v>132703000</v>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>111410</v>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="C972" t="n">
+        <v>195.9700012207031</v>
+      </c>
+      <c r="D972" t="n">
+        <v>195.9700012207031</v>
+      </c>
+      <c r="E972" t="n">
+        <v>196.5200042724609</v>
+      </c>
+      <c r="F972" t="n">
+        <v>182.5899963378906</v>
+      </c>
+      <c r="G972" t="n">
+        <v>186</v>
+      </c>
+      <c r="H972" t="n">
+        <v>114403600</v>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>111411</v>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="C973" t="n">
+        <v>190.9499969482422</v>
+      </c>
+      <c r="D973" t="n">
+        <v>190.9499969482422</v>
+      </c>
+      <c r="E973" t="n">
+        <v>195.7299957275391</v>
+      </c>
+      <c r="F973" t="n">
+        <v>186.3399963378906</v>
+      </c>
+      <c r="G973" t="n">
+        <v>192.7700042724609</v>
+      </c>
+      <c r="H973" t="n">
+        <v>92226600</v>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>111412</v>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="C974" t="n">
+        <v>194.4199981689453</v>
+      </c>
+      <c r="D974" t="n">
+        <v>194.4199981689453</v>
+      </c>
+      <c r="E974" t="n">
+        <v>200.8200073242188</v>
+      </c>
+      <c r="F974" t="n">
+        <v>192.0599975585938</v>
+      </c>
+      <c r="G974" t="n">
+        <v>195.8800048828125</v>
+      </c>
+      <c r="H974" t="n">
+        <v>91293800</v>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>111413</v>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="C975" t="n">
+        <v>186.9199981689453</v>
+      </c>
+      <c r="D975" t="n">
+        <v>186.9199981689453</v>
+      </c>
+      <c r="E975" t="n">
+        <v>192.5700073242188</v>
+      </c>
+      <c r="F975" t="n">
+        <v>185.6600036621094</v>
+      </c>
+      <c r="G975" t="n">
+        <v>191.5099945068359</v>
+      </c>
+      <c r="H975" t="n">
+        <v>66567600</v>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>111414</v>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="C976" t="n">
+        <v>183.1699981689453</v>
+      </c>
+      <c r="D976" t="n">
+        <v>183.1699981689453</v>
+      </c>
+      <c r="E976" t="n">
+        <v>186.1600036621094</v>
+      </c>
+      <c r="F976" t="n">
+        <v>180.8999938964844</v>
+      </c>
+      <c r="G976" t="n">
+        <v>183.9600067138672</v>
+      </c>
+      <c r="H976" t="n">
+        <v>64336000</v>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>111415</v>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="C977" t="n">
+        <v>180.1900024414062</v>
+      </c>
+      <c r="D977" t="n">
+        <v>180.1900024414062</v>
+      </c>
+      <c r="E977" t="n">
+        <v>185.1900024414062</v>
+      </c>
+      <c r="F977" t="n">
+        <v>176.5500030517578</v>
+      </c>
+      <c r="G977" t="n">
+        <v>185.0500030517578</v>
+      </c>
+      <c r="H977" t="n">
+        <v>76048900</v>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>111416</v>
+      </c>
+      <c r="B978" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="C978" t="n">
+        <v>167.8699951171875</v>
+      </c>
+      <c r="D978" t="n">
+        <v>167.8699951171875</v>
+      </c>
+      <c r="E978" t="n">
+        <v>176.7700042724609</v>
+      </c>
+      <c r="F978" t="n">
+        <v>167.5399932861328</v>
+      </c>
+      <c r="G978" t="n">
+        <v>175.8500061035156</v>
+      </c>
+      <c r="H978" t="n">
+        <v>92882700</v>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>111417</v>
+      </c>
+      <c r="B979" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C979" t="n">
+        <v>169.9100036621094</v>
+      </c>
+      <c r="D979" t="n">
+        <v>169.9100036621094</v>
+      </c>
+      <c r="E979" t="n">
+        <v>170.9199981689453</v>
+      </c>
+      <c r="F979" t="n">
+        <v>166.1900024414062</v>
+      </c>
+      <c r="G979" t="n">
+        <v>168.6300048828125</v>
+      </c>
+      <c r="H979" t="n">
+        <v>78452300</v>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>111418</v>
+      </c>
+      <c r="B980" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C980" t="n">
+        <v>183.1999969482422</v>
+      </c>
+      <c r="D980" t="n">
+        <v>183.1999969482422</v>
+      </c>
+      <c r="E980" t="n">
+        <v>183.6199951171875</v>
+      </c>
+      <c r="F980" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="G980" t="n">
+        <v>173.5700073242188</v>
+      </c>
+      <c r="H980" t="n">
+        <v>109536700</v>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>111419</v>
+      </c>
+      <c r="B981" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C981" t="n">
+        <v>182.8600006103516</v>
+      </c>
+      <c r="D981" t="n">
+        <v>182.8600006103516</v>
+      </c>
+      <c r="E981" t="n">
+        <v>185.1999969482422</v>
+      </c>
+      <c r="F981" t="n">
+        <v>180.6300048828125</v>
+      </c>
+      <c r="G981" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="H981" t="n">
+        <v>50672700</v>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>111420</v>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C982" t="n">
+        <v>182.9199981689453</v>
+      </c>
+      <c r="D982" t="n">
+        <v>182.9199981689453</v>
+      </c>
+      <c r="E982" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F982" t="n">
+        <v>179</v>
+      </c>
+      <c r="G982" t="n">
+        <v>179.9600067138672</v>
+      </c>
+      <c r="H982" t="n">
+        <v>92905200</v>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>111421</v>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="C983" t="n">
+        <v>180.8300018310547</v>
+      </c>
+      <c r="D983" t="n">
+        <v>180.8300018310547</v>
+      </c>
+      <c r="E983" t="n">
+        <v>186.3800048828125</v>
+      </c>
+      <c r="F983" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="G983" t="n">
+        <v>184.9900054931641</v>
+      </c>
+      <c r="H983" t="n">
+        <v>83357100</v>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>111422</v>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="C984" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="D984" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="E984" t="n">
+        <v>194.7599945068359</v>
+      </c>
+      <c r="F984" t="n">
+        <v>180.6300048828125</v>
+      </c>
+      <c r="G984" t="n">
+        <v>182.4299926757812</v>
+      </c>
+      <c r="H984" t="n">
+        <v>109186400</v>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>111423</v>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C985" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="D985" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="E985" t="n">
+        <v>198.9199981689453</v>
+      </c>
+      <c r="F985" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="G985" t="n">
+        <v>197.0800018310547</v>
+      </c>
+      <c r="H985" t="n">
+        <v>80046200</v>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>111424</v>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C986" t="n">
+        <v>194.8600006103516</v>
+      </c>
+      <c r="D986" t="n">
+        <v>194.8600006103516</v>
+      </c>
+      <c r="E986" t="n">
+        <v>196.25</v>
+      </c>
+      <c r="F986" t="n">
+        <v>191.1100006103516</v>
+      </c>
+      <c r="G986" t="n">
+        <v>191.7799987792969</v>
+      </c>
+      <c r="H986" t="n">
+        <v>73645900</v>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>111425</v>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C987" t="n">
+        <v>182.4499969482422</v>
+      </c>
+      <c r="D987" t="n">
+        <v>182.4499969482422</v>
+      </c>
+      <c r="E987" t="n">
+        <v>191.2700042724609</v>
+      </c>
+      <c r="F987" t="n">
+        <v>180.5500030517578</v>
+      </c>
+      <c r="G987" t="n">
+        <v>189.4400024414062</v>
+      </c>
+      <c r="H987" t="n">
+        <v>93122700</v>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>111426</v>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="C988" t="n">
+        <v>179.8200073242188</v>
+      </c>
+      <c r="D988" t="n">
+        <v>179.8200073242188</v>
+      </c>
+      <c r="E988" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="F988" t="n">
+        <v>175.3300018310547</v>
+      </c>
+      <c r="G988" t="n">
+        <v>181.2200012207031</v>
+      </c>
+      <c r="H988" t="n">
+        <v>92150800</v>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>111427</v>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C989" t="n">
+        <v>174.0399932861328</v>
+      </c>
+      <c r="D989" t="n">
+        <v>174.0399932861328</v>
+      </c>
+      <c r="E989" t="n">
+        <v>179.3800048828125</v>
+      </c>
+      <c r="F989" t="n">
+        <v>172.2200012207031</v>
+      </c>
+      <c r="G989" t="n">
+        <v>175.0299987792969</v>
+      </c>
+      <c r="H989" t="n">
+        <v>84213300</v>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>111428</v>
+      </c>
+      <c r="B990" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="C990" t="n">
+        <v>173.4400024414062</v>
+      </c>
+      <c r="D990" t="n">
+        <v>173.4400024414062</v>
+      </c>
+      <c r="E990" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="F990" t="n">
+        <v>169.0599975585938</v>
+      </c>
+      <c r="G990" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="H990" t="n">
+        <v>97624500</v>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>111429</v>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C991" t="n">
+        <v>179.0500030517578</v>
+      </c>
+      <c r="D991" t="n">
+        <v>179.0500030517578</v>
+      </c>
+      <c r="E991" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F991" t="n">
+        <v>173.3600006103516</v>
+      </c>
+      <c r="G991" t="n">
+        <v>173.8399963378906</v>
+      </c>
+      <c r="H991" t="n">
+        <v>104872300</v>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>111430</v>
+      </c>
+      <c r="B992" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="C992" t="n">
+        <v>167.8200073242188</v>
+      </c>
+      <c r="D992" t="n">
+        <v>167.8200073242188</v>
+      </c>
+      <c r="E992" t="n">
+        <v>177.3699951171875</v>
+      </c>
+      <c r="F992" t="n">
+        <v>167.5200042724609</v>
+      </c>
+      <c r="G992" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="H992" t="n">
+        <v>109794500</v>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>111431</v>
+      </c>
+      <c r="B993" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="C993" t="n">
+        <v>160.9499969482422</v>
+      </c>
+      <c r="D993" t="n">
+        <v>160.9499969482422</v>
+      </c>
+      <c r="E993" t="n">
+        <v>175.0500030517578</v>
+      </c>
+      <c r="F993" t="n">
+        <v>156.9100036621094</v>
+      </c>
+      <c r="G993" t="n">
+        <v>174.8699951171875</v>
+      </c>
+      <c r="H993" t="n">
+        <v>175862700</v>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>111432</v>
+      </c>
+      <c r="B994" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="C994" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="D994" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="E994" t="n">
+        <v>161.6199951171875</v>
+      </c>
+      <c r="F994" t="n">
+        <v>155.3099975585938</v>
+      </c>
+      <c r="G994" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="H994" t="n">
+        <v>140682300</v>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>111433</v>
+      </c>
+      <c r="B995" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="C995" t="n">
+        <v>157.6699981689453</v>
+      </c>
+      <c r="D995" t="n">
+        <v>157.6699981689453</v>
+      </c>
+      <c r="E995" t="n">
+        <v>160.9299926757812</v>
+      </c>
+      <c r="F995" t="n">
+        <v>153.2799987792969</v>
+      </c>
+      <c r="G995" t="n">
+        <v>153.4400024414062</v>
+      </c>
+      <c r="H995" t="n">
+        <v>122334500</v>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>111434</v>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C996" t="n">
+        <v>150.2299957275391</v>
+      </c>
+      <c r="D996" t="n">
+        <v>150.2299957275391</v>
+      </c>
+      <c r="E996" t="n">
+        <v>160.9900054931641</v>
+      </c>
+      <c r="F996" t="n">
+        <v>150.0399932861328</v>
+      </c>
+      <c r="G996" t="n">
+        <v>159.6399993896484</v>
+      </c>
+      <c r="H996" t="n">
+        <v>139032200</v>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>111435</v>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C997" t="n">
+        <v>149.8699951171875</v>
+      </c>
+      <c r="D997" t="n">
+        <v>149.8699951171875</v>
+      </c>
+      <c r="E997" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="F997" t="n">
+        <v>145.8200073242188</v>
+      </c>
+      <c r="G997" t="n">
+        <v>154</v>
+      </c>
+      <c r="H997" t="n">
+        <v>139390600</v>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>111436</v>
+      </c>
+      <c r="B998" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C998" t="n">
+        <v>137.8000030517578</v>
+      </c>
+      <c r="D998" t="n">
+        <v>137.8000030517578</v>
+      </c>
+      <c r="E998" t="n">
+        <v>148.4700012207031</v>
+      </c>
+      <c r="F998" t="n">
+        <v>137.6600036621094</v>
+      </c>
+      <c r="G998" t="n">
+        <v>146.0500030517578</v>
+      </c>
+      <c r="H998" t="n">
+        <v>159563300</v>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>111437</v>
+      </c>
+      <c r="B999" s="2" t="n">
+        <v>44916</v>
+      </c>
+      <c r="C999" t="n">
+        <v>137.5700073242188</v>
+      </c>
+      <c r="D999" t="n">
+        <v>137.5700073242188</v>
+      </c>
+      <c r="E999" t="n">
+        <v>141.2599945068359</v>
+      </c>
+      <c r="F999" t="n">
+        <v>135.8899993896484</v>
+      </c>
+      <c r="G999" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="H999" t="n">
+        <v>145417400</v>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>111438</v>
+      </c>
+      <c r="B1000" s="2" t="n">
+        <v>44917</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>125.3499984741211</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>125.3499984741211</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>136.6300048828125</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>122.2600021362305</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>136</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>210090300</v>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>111439</v>
+      </c>
+      <c r="B1001" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>123.1500015258789</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>123.1500015258789</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>128.6199951171875</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>121.0199966430664</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>126.370002746582</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>166989700</v>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>111440</v>
+      </c>
+      <c r="B1002" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>109.0999984741211</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>109.0999984741211</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>119.6699981689453</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>108.7600021362305</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>208643400</v>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>111441</v>
+      </c>
+      <c r="B1003" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>112.7099990844727</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>112.7099990844727</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>116.2699966430664</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>108.2399978637695</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>110.3499984741211</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>221070500</v>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>111442</v>
+      </c>
+      <c r="B1004" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>121.8199996948242</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>121.8199996948242</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>123.5699996948242</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>120.3899993896484</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>221923300</v>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>111443</v>
+      </c>
+      <c r="B1005" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>123.1800003051758</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>123.1800003051758</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>124.4800033569336</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>119.9499969482422</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>157777300</v>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
